--- a/data/model_data/twfe_SALWC.xlsx
+++ b/data/model_data/twfe_SALWC.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>386228.9344820626</v>
+        <v>386228.9344817602</v>
       </c>
       <c r="C2">
-        <v>30968.05184601955</v>
+        <v>45203.20076276131</v>
       </c>
       <c r="D2">
-        <v>12.4718511969201</v>
+        <v>8.544282881842697</v>
       </c>
       <c r="E2">
-        <v>4.711921988417695E-35</v>
+        <v>2.627368849367216E-17</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>6487.73717798967</v>
+        <v>6487.737178001133</v>
       </c>
       <c r="C3">
-        <v>8338.463864774041</v>
+        <v>12171.42292342738</v>
       </c>
       <c r="D3">
-        <v>0.7780494445022671</v>
+        <v>0.5330302971819039</v>
       </c>
       <c r="E3">
-        <v>0.4365857449593412</v>
+        <v>0.594075508424721</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>905573.415241776</v>
+        <v>905573.4152421238</v>
       </c>
       <c r="C4">
-        <v>43052.75556607379</v>
+        <v>62842.9054213764</v>
       </c>
       <c r="D4">
-        <v>21.03404075615967</v>
+        <v>14.41011374585631</v>
       </c>
       <c r="E4">
-        <v>2.921086427511069E-93</v>
+        <v>9.779077076734098E-45</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-368068.5847582207</v>
+        <v>-368068.5847579085</v>
       </c>
       <c r="C5">
-        <v>43052.75556607745</v>
+        <v>62842.90542137642</v>
       </c>
       <c r="D5">
-        <v>-8.54924568517591</v>
+        <v>-5.856963205152949</v>
       </c>
       <c r="E5">
-        <v>1.736953721080479E-17</v>
+        <v>5.550209594998944E-09</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-422597.2514247615</v>
+        <v>-422597.2514245248</v>
       </c>
       <c r="C6">
-        <v>43052.75556606782</v>
+        <v>62842.90542137096</v>
       </c>
       <c r="D6">
-        <v>-9.815800309837382</v>
+        <v>-6.724661257956612</v>
       </c>
       <c r="E6">
-        <v>1.721470717757254E-22</v>
+        <v>2.326362337477317E-11</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-378194.450143295</v>
+        <v>-378194.4501430275</v>
       </c>
       <c r="C7">
-        <v>43202.03333159984</v>
+        <v>63060.80200841717</v>
       </c>
       <c r="D7">
-        <v>-8.754089124473388</v>
+        <v>-5.997298450034735</v>
       </c>
       <c r="E7">
-        <v>2.981103587169256E-18</v>
+        <v>2.399426855630674E-09</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-294670.7834766278</v>
+        <v>-294670.7834763019</v>
       </c>
       <c r="C8">
-        <v>43202.03333160029</v>
+        <v>63060.80200840868</v>
       </c>
       <c r="D8">
-        <v>-6.820761912173466</v>
+        <v>-4.672804247510359</v>
       </c>
       <c r="E8">
-        <v>1.041203106378106E-11</v>
+        <v>3.181749173290498E-06</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-39365.14031374869</v>
+        <v>-39365.1403134553</v>
       </c>
       <c r="C9">
-        <v>43052.75556607549</v>
+        <v>62842.90542137201</v>
       </c>
       <c r="D9">
-        <v>-0.9143465916678154</v>
+        <v>-0.6264054796560655</v>
       </c>
       <c r="E9">
-        <v>0.3605897028227001</v>
+        <v>0.5311249437414489</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>231198.7720789664</v>
+        <v>231198.7720792028</v>
       </c>
       <c r="C10">
-        <v>43202.03333161182</v>
+        <v>63060.80200841364</v>
       </c>
       <c r="D10">
-        <v>5.351571540726384</v>
+        <v>3.666283407692088</v>
       </c>
       <c r="E10">
-        <v>9.206615505091878E-08</v>
+        <v>0.0002529247245984426</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>-449984.783476713</v>
+        <v>-449984.7834763697</v>
       </c>
       <c r="C11">
-        <v>43202.03333160718</v>
+        <v>63060.80200841732</v>
       </c>
       <c r="D11">
-        <v>-10.41582418176364</v>
+        <v>-7.135728838594631</v>
       </c>
       <c r="E11">
-        <v>4.373415002762478E-25</v>
+        <v>1.368088723508231E-12</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-468283.1168100299</v>
+        <v>-468283.1168096818</v>
       </c>
       <c r="C12">
-        <v>43202.03333160697</v>
+        <v>63060.80200841527</v>
       </c>
       <c r="D12">
-        <v>-10.83937677691272</v>
+        <v>-7.425898528014136</v>
       </c>
       <c r="E12">
-        <v>5.283417714548996E-27</v>
+        <v>1.688444428112391E-13</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-247487.8945876834</v>
+        <v>-247487.8945874675</v>
       </c>
       <c r="C13">
-        <v>43202.03333159242</v>
+        <v>63060.80200841762</v>
       </c>
       <c r="D13">
-        <v>-5.728616815049363</v>
+        <v>-3.924591611670778</v>
       </c>
       <c r="E13">
-        <v>1.086779191017023E-08</v>
+        <v>8.99997037591829E-05</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>259355.4444442081</v>
+        <v>259355.4444445293</v>
       </c>
       <c r="C14">
-        <v>43042.78530743576</v>
+        <v>62828.35211317112</v>
       </c>
       <c r="D14">
-        <v>6.025526521849034</v>
+        <v>4.128000110162987</v>
       </c>
       <c r="E14">
-        <v>1.837164758289985E-09</v>
+        <v>3.819094260661997E-05</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-369730.8945877921</v>
+        <v>-369730.8945874906</v>
       </c>
       <c r="C15">
-        <v>43202.03333160569</v>
+        <v>63060.8020084191</v>
       </c>
       <c r="D15">
-        <v>-8.558182707509392</v>
+        <v>-5.86308582846962</v>
       </c>
       <c r="E15">
-        <v>1.609716248574337E-17</v>
+        <v>5.352838174761903E-09</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>-332869.0000002487</v>
+        <v>-332868.9999998613</v>
       </c>
       <c r="C16">
-        <v>43042.78530744171</v>
+        <v>62828.35211316906</v>
       </c>
       <c r="D16">
-        <v>-7.733444702118258</v>
+        <v>-5.298069880939799</v>
       </c>
       <c r="E16">
-        <v>1.314848734235805E-14</v>
+        <v>1.307558299004275E-07</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>-176685.1111112743</v>
+        <v>-176685.1111110297</v>
       </c>
       <c r="C17">
-        <v>43042.78530743266</v>
+        <v>62828.35211317953</v>
       </c>
       <c r="D17">
-        <v>-4.104871695669849</v>
+        <v>-2.812187574054905</v>
       </c>
       <c r="E17">
-        <v>4.125862889410952E-05</v>
+        <v>0.004971591337385279</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-463975.783476706</v>
+        <v>-463975.7834763124</v>
       </c>
       <c r="C18">
-        <v>43202.03333160639</v>
+        <v>63060.80200841118</v>
       </c>
       <c r="D18">
-        <v>-10.73967467955411</v>
+        <v>-7.357594079035442</v>
       </c>
       <c r="E18">
-        <v>1.516219092767255E-26</v>
+        <v>2.781885877306953E-13</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>-259460.5555557835</v>
+        <v>-259460.555555461</v>
       </c>
       <c r="C19">
-        <v>43042.78530743984</v>
+        <v>62828.35211317566</v>
       </c>
       <c r="D19">
-        <v>-6.027968536481686</v>
+        <v>-4.129673098668616</v>
       </c>
       <c r="E19">
-        <v>1.809872321466402E-09</v>
+        <v>3.791659393755966E-05</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-407701.4444445156</v>
+        <v>-407701.4444443281</v>
       </c>
       <c r="C20">
-        <v>43042.78530742721</v>
+        <v>62828.35211317225</v>
       </c>
       <c r="D20">
-        <v>-9.472004228642819</v>
+        <v>-6.489131589985655</v>
       </c>
       <c r="E20">
-        <v>4.549901078087209E-21</v>
+        <v>1.100700955715868E-10</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-32039.56125445597</v>
+        <v>-32039.56125412359</v>
       </c>
       <c r="C21">
-        <v>43202.03333161497</v>
+        <v>63060.80200841918</v>
       </c>
       <c r="D21">
-        <v>-0.741621603976904</v>
+        <v>-0.508074116308353</v>
       </c>
       <c r="E21">
-        <v>0.4583600394696815</v>
+        <v>0.61146087736405</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>-456030.3333335908</v>
+        <v>-456030.3333332274</v>
       </c>
       <c r="C22">
-        <v>43042.78530744065</v>
+        <v>62828.35211317339</v>
       </c>
       <c r="D22">
-        <v>-10.59481467280321</v>
+        <v>-7.258352606666732</v>
       </c>
       <c r="E22">
-        <v>6.902153167669889E-26</v>
+        <v>5.70372213970983E-13</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>2166828.105412399</v>
+        <v>2166828.105412808</v>
       </c>
       <c r="C23">
-        <v>43202.03333160566</v>
+        <v>63060.80200842136</v>
       </c>
       <c r="D23">
-        <v>50.15569727425758</v>
+        <v>34.36093478677043</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.788578592592813E-201</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>-371005.8945878626</v>
+        <v>-371005.8945874851</v>
       </c>
       <c r="C24">
-        <v>43202.03333161066</v>
+        <v>63060.80200841889</v>
       </c>
       <c r="D24">
-        <v>-8.587695207308679</v>
+        <v>-5.883304410526752</v>
       </c>
       <c r="E24">
-        <v>1.251456129209944E-17</v>
+        <v>4.748412150335818E-09</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-225531.5612544016</v>
+        <v>-225531.5612541134</v>
       </c>
       <c r="C25">
-        <v>43202.03333159767</v>
+        <v>63060.8020084134</v>
       </c>
       <c r="D25">
-        <v>-5.220392279301571</v>
+        <v>-3.576414413886198</v>
       </c>
       <c r="E25">
-        <v>1.875876563613764E-07</v>
+        <v>0.0003571318244393211</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>-434359.1168099117</v>
+        <v>-434359.1168096584</v>
       </c>
       <c r="C26">
-        <v>43202.03333159723</v>
+        <v>63060.80200841314</v>
       </c>
       <c r="D26">
-        <v>-10.05413595874037</v>
+        <v>-6.887941525889714</v>
       </c>
       <c r="E26">
-        <v>1.668322414085016E-23</v>
+        <v>7.688825237607663E-12</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-75958.22222240812</v>
+        <v>-75958.22222213124</v>
       </c>
       <c r="C27">
-        <v>43042.78530743181</v>
+        <v>62828.35211317832</v>
       </c>
       <c r="D27">
-        <v>-1.764714380816176</v>
+        <v>-1.208980017258783</v>
       </c>
       <c r="E27">
-        <v>0.07768785538279116</v>
+        <v>0.226822304634076</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>-35497.11111129925</v>
+        <v>-35497.11111101868</v>
       </c>
       <c r="C28">
-        <v>43042.78530743338</v>
+        <v>62828.35211317995</v>
       </c>
       <c r="D28">
-        <v>-0.8246936358267918</v>
+        <v>-0.5649855505850868</v>
       </c>
       <c r="E28">
-        <v>0.4095945735744752</v>
+        <v>0.5721508942636414</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>363652.7720789298</v>
+        <v>363652.7720792026</v>
       </c>
       <c r="C29">
-        <v>43202.03333160484</v>
+        <v>63060.8020084132</v>
       </c>
       <c r="D29">
-        <v>8.417492049220201</v>
+        <v>5.766700715774059</v>
       </c>
       <c r="E29">
-        <v>5.285690640564198E-17</v>
+        <v>9.427512961740488E-09</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-349488.3333334425</v>
+        <v>-349488.3333332425</v>
       </c>
       <c r="C30">
-        <v>43042.78530742842</v>
+        <v>62828.3521131755</v>
       </c>
       <c r="D30">
-        <v>-8.119556642007714</v>
+        <v>-5.562589524928072</v>
       </c>
       <c r="E30">
-        <v>6.166076731714778E-16</v>
+        <v>3.038488153129518E-08</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-401477.672365619</v>
+        <v>-401477.6723652231</v>
       </c>
       <c r="C31">
-        <v>43202.03333160813</v>
+        <v>63060.80200841411</v>
       </c>
       <c r="D31">
-        <v>-9.293027235176076</v>
+        <v>-6.366517068902082</v>
       </c>
       <c r="E31">
-        <v>2.39641197963366E-20</v>
+        <v>2.423002041247702E-10</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-465665.6958693722</v>
+        <v>-465665.6958690816</v>
       </c>
       <c r="C32">
-        <v>43052.75556607977</v>
+        <v>62842.90542138241</v>
       </c>
       <c r="D32">
-        <v>-10.81616472038921</v>
+        <v>-7.409996287514708</v>
       </c>
       <c r="E32">
-        <v>6.758626625415861E-27</v>
+        <v>1.897299684117314E-13</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>-157645.8069804432</v>
+        <v>-157645.8069800922</v>
       </c>
       <c r="C33">
-        <v>43052.75556608051</v>
+        <v>62842.9054213684</v>
       </c>
       <c r="D33">
-        <v>-3.661689127853312</v>
+        <v>-2.508569677405272</v>
       </c>
       <c r="E33">
-        <v>0.0002537873704409618</v>
+        <v>0.01220555849809394</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-322567.1168100265</v>
+        <v>-322567.1168096628</v>
       </c>
       <c r="C34">
-        <v>43202.03333160662</v>
+        <v>63060.80200841195</v>
       </c>
       <c r="D34">
-        <v>-7.46647997639584</v>
+        <v>-5.115176251114507</v>
       </c>
       <c r="E34">
-        <v>1.004775400182255E-13</v>
+        <v>3.45327232852303E-07</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>-408930.7834766925</v>
+        <v>-408930.7834763541</v>
       </c>
       <c r="C35">
-        <v>43202.03333160465</v>
+        <v>63060.80200841636</v>
       </c>
       <c r="D35">
-        <v>-9.465544835306103</v>
+        <v>-6.484706354064075</v>
       </c>
       <c r="E35">
-        <v>4.833563238830331E-21</v>
+        <v>1.132767820608381E-10</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>309783.5498566446</v>
+        <v>309783.5498570385</v>
       </c>
       <c r="C36">
-        <v>43202.03333159724</v>
+        <v>63060.80200842062</v>
       </c>
       <c r="D36">
-        <v>7.170578002171814</v>
+        <v>4.912458135493941</v>
       </c>
       <c r="E36">
-        <v>8.849040150947288E-13</v>
+        <v>9.771869416270082E-07</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-405200.5612545201</v>
+        <v>-405200.5612540999</v>
       </c>
       <c r="C37">
-        <v>43202.03333160945</v>
+        <v>63060.80200841233</v>
       </c>
       <c r="D37">
-        <v>-9.379201162692699</v>
+        <v>-6.425553566541161</v>
       </c>
       <c r="E37">
-        <v>1.080816809443815E-20</v>
+        <v>1.659982408341268E-10</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>735707.0819085931</v>
+        <v>735707.0819087037</v>
       </c>
       <c r="C38">
-        <v>43052.75556608017</v>
+        <v>62842.90542137127</v>
       </c>
       <c r="D38">
-        <v>17.08850158915802</v>
+        <v>11.70708255730182</v>
       </c>
       <c r="E38">
-        <v>2.977342647156587E-63</v>
+        <v>1.310844657338867E-30</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-403957.3390321662</v>
+        <v>-403957.3390318832</v>
       </c>
       <c r="C39">
-        <v>43202.03333159912</v>
+        <v>63060.80200841306</v>
       </c>
       <c r="D39">
-        <v>-9.350424224979731</v>
+        <v>-6.40583890731346</v>
       </c>
       <c r="E39">
-        <v>1.411119830078232E-20</v>
+        <v>1.884114572749908E-10</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-45794.22222240781</v>
+        <v>-45794.22222211923</v>
       </c>
       <c r="C40">
-        <v>43042.78530743592</v>
+        <v>62828.35211316698</v>
       </c>
       <c r="D40">
-        <v>-1.063923300857962</v>
+        <v>-0.7288782958947304</v>
       </c>
       <c r="E40">
-        <v>0.2874274758066931</v>
+        <v>0.4661667538213925</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-418188.1111112442</v>
+        <v>-418188.1111110077</v>
       </c>
       <c r="C41">
-        <v>43042.78530743194</v>
+        <v>62828.35211317393</v>
       </c>
       <c r="D41">
-        <v>-9.715637780509482</v>
+        <v>-6.656041373768922</v>
       </c>
       <c r="E41">
-        <v>4.519672643737159E-22</v>
+        <v>3.677899250881456E-11</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>-466397.3333334083</v>
+        <v>-466397.3333331963</v>
       </c>
       <c r="C42">
-        <v>43042.78530742803</v>
+        <v>62828.35211317035</v>
       </c>
       <c r="D42">
-        <v>-10.83566804523035</v>
+        <v>-7.423357730170805</v>
       </c>
       <c r="E42">
-        <v>5.495614062547106E-27</v>
+        <v>1.72022766337316E-13</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-442709.2222223824</v>
+        <v>-442709.2222221383</v>
       </c>
       <c r="C43">
-        <v>43042.78530743381</v>
+        <v>62828.35211317561</v>
       </c>
       <c r="D43">
-        <v>-10.28532933127641</v>
+        <v>-7.046328724723923</v>
       </c>
       <c r="E43">
-        <v>1.649676590352823E-24</v>
+        <v>2.566869512622559E-12</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-444952.7777779783</v>
+        <v>-444952.7777777115</v>
       </c>
       <c r="C44">
-        <v>43042.78530743696</v>
+        <v>62828.35211317775</v>
       </c>
       <c r="D44">
-        <v>-10.33745317827048</v>
+        <v>-7.082038010103819</v>
       </c>
       <c r="E44">
-        <v>9.725366215507691E-25</v>
+        <v>1.998112532106697E-12</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>-203681.1111112995</v>
+        <v>-203681.1111110252</v>
       </c>
       <c r="C45">
-        <v>43042.78530743458</v>
+        <v>62828.35211317857</v>
       </c>
       <c r="D45">
-        <v>-4.732061590728856</v>
+        <v>-3.241866199898343</v>
       </c>
       <c r="E45">
-        <v>2.299067125824373E-06</v>
+        <v>0.001208244275426826</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-470576.8888891058</v>
+        <v>-470576.8888887956</v>
       </c>
       <c r="C46">
-        <v>43042.78530743802</v>
+        <v>62828.35211317483</v>
       </c>
       <c r="D46">
-        <v>-10.93277039410802</v>
+        <v>-7.489881129480041</v>
       </c>
       <c r="E46">
-        <v>1.952009172373278E-27</v>
+        <v>1.053664097027749E-13</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-380662.9180914537</v>
+        <v>-380662.918091265</v>
       </c>
       <c r="C47">
-        <v>43052.7555660689</v>
+        <v>62842.90542137927</v>
       </c>
       <c r="D47">
-        <v>-8.84177825754468</v>
+        <v>-6.057372992843242</v>
       </c>
       <c r="E47">
-        <v>1.385245018186047E-18</v>
+        <v>1.666458738236406E-09</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-380013.777777928</v>
+        <v>-380013.7777776676</v>
       </c>
       <c r="C48">
-        <v>43042.78530743221</v>
+        <v>62828.35211317272</v>
       </c>
       <c r="D48">
-        <v>-8.828745051317831</v>
+        <v>-6.048444133838633</v>
       </c>
       <c r="E48">
-        <v>1.553083765381843E-18</v>
+        <v>1.759607290850442E-09</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-429837.1168100453</v>
+        <v>-429837.1168096592</v>
       </c>
       <c r="C49">
-        <v>43202.03333160705</v>
+        <v>63060.80200841311</v>
       </c>
       <c r="D49">
-        <v>-9.949464959455323</v>
+        <v>-6.816232954860191</v>
       </c>
       <c r="E49">
-        <v>4.679817670545773E-23</v>
+        <v>1.254063415372451E-11</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-390937.2222224639</v>
+        <v>-390937.2222221069</v>
       </c>
       <c r="C50">
-        <v>43042.78530744012</v>
+        <v>62828.35211317213</v>
       </c>
       <c r="D50">
-        <v>-9.082526129062767</v>
+        <v>-6.222305839215954</v>
       </c>
       <c r="E50">
-        <v>1.628226786104532E-19</v>
+        <v>6.02207545378752E-10</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-450502.8888891005</v>
+        <v>-450502.8888887981</v>
       </c>
       <c r="C51">
-        <v>43042.78530743729</v>
+        <v>62828.35211317518</v>
       </c>
       <c r="D51">
-        <v>-10.46639722943903</v>
+        <v>-7.17037569403841</v>
       </c>
       <c r="E51">
-        <v>2.603465908567156E-25</v>
+        <v>1.069934513016721E-12</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>-459074.5555558258</v>
+        <v>-459074.5555554925</v>
       </c>
       <c r="C52">
-        <v>43042.78530744138</v>
+        <v>62828.35211317788</v>
       </c>
       <c r="D52">
-        <v>-10.66554016606494</v>
+        <v>-7.306805607896953</v>
       </c>
       <c r="E52">
-        <v>3.301069201012275E-26</v>
+        <v>4.021606415502612E-13</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>-350365.4444446115</v>
+        <v>-350365.4444443904</v>
       </c>
       <c r="C53">
-        <v>43042.78530743402</v>
+        <v>62828.35211318103</v>
       </c>
       <c r="D53">
-        <v>-8.13993429891023</v>
+        <v>-5.576549959693845</v>
       </c>
       <c r="E53">
-        <v>5.226214569274982E-16</v>
+        <v>2.808192159224821E-08</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-425893.2222224233</v>
+        <v>-425893.2222221503</v>
       </c>
       <c r="C54">
-        <v>43042.78530743705</v>
+        <v>62828.35211317738</v>
       </c>
       <c r="D54">
-        <v>-9.894648294259811</v>
+        <v>-6.778678859107385</v>
       </c>
       <c r="E54">
-        <v>7.999764676028971E-23</v>
+        <v>1.617243687003547E-11</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>-318860.6666669491</v>
+        <v>-318860.6666665826</v>
       </c>
       <c r="C55">
-        <v>43042.78530744452</v>
+        <v>62828.35211317693</v>
       </c>
       <c r="D55">
-        <v>-7.407993334757547</v>
+        <v>-5.075107908165369</v>
       </c>
       <c r="E55">
-        <v>1.554763086451609E-13</v>
+        <v>4.254356271963259E-07</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>377304.9999998473</v>
+        <v>377305.0000000968</v>
       </c>
       <c r="C56">
-        <v>43042.78530743999</v>
+        <v>62828.35211317377</v>
       </c>
       <c r="D56">
-        <v>8.765812837270774</v>
+        <v>6.005330194248147</v>
       </c>
       <c r="E56">
-        <v>2.691884299242195E-18</v>
+        <v>2.28573110424807E-09</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-456004.4444446124</v>
+        <v>-456004.4444442917</v>
       </c>
       <c r="C57">
-        <v>43042.7853074344</v>
+        <v>62828.35211316856</v>
       </c>
       <c r="D57">
-        <v>-10.59421320408489</v>
+        <v>-7.257940549243135</v>
       </c>
       <c r="E57">
-        <v>6.945448255126809E-26</v>
+        <v>5.72064521812269E-13</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>-450774.6666668621</v>
+        <v>-450774.6666665173</v>
       </c>
       <c r="C58">
-        <v>43042.78530743644</v>
+        <v>62828.35211316935</v>
       </c>
       <c r="D58">
-        <v>-10.47271136027023</v>
+        <v>-7.174701412740557</v>
       </c>
       <c r="E58">
-        <v>2.439807118062197E-25</v>
+        <v>1.037517205739762E-12</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-439224.1111112745</v>
+        <v>-439224.1111109899</v>
       </c>
       <c r="C59">
-        <v>43042.78530743434</v>
+        <v>62828.35211317176</v>
       </c>
       <c r="D59">
-        <v>-10.2043607999367</v>
+        <v>-6.990858367888149</v>
       </c>
       <c r="E59">
-        <v>3.730341259239811E-24</v>
+        <v>3.779135136920645E-12</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>-472200.5555558446</v>
+        <v>-472200.5555554589</v>
       </c>
       <c r="C60">
-        <v>43042.78530744286</v>
+        <v>62828.35211317482</v>
       </c>
       <c r="D60">
-        <v>-10.97049255021591</v>
+        <v>-7.515724027026336</v>
       </c>
       <c r="E60">
-        <v>1.302704416774377E-27</v>
+        <v>8.700330589993814E-14</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>-394559.4444446299</v>
+        <v>-394559.444444312</v>
       </c>
       <c r="C61">
-        <v>43042.78530743568</v>
+        <v>62828.35211317005</v>
       </c>
       <c r="D61">
-        <v>-9.166680121336604</v>
+        <v>-6.279958508757459</v>
       </c>
       <c r="E61">
-        <v>7.606401971421442E-20</v>
+        <v>4.194398191298716E-10</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>-456963.8888890627</v>
+        <v>-456963.8888887449</v>
       </c>
       <c r="C62">
-        <v>43042.7853074351</v>
+        <v>62828.35211316947</v>
       </c>
       <c r="D62">
-        <v>-10.61650368639429</v>
+        <v>-7.273211432724502</v>
       </c>
       <c r="E62">
-        <v>5.507582690585849E-26</v>
+        <v>5.125273546160527E-13</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>-471033.8888890236</v>
+        <v>-471033.8888887618</v>
       </c>
       <c r="C63">
-        <v>43042.78530743209</v>
+        <v>62828.35211317206</v>
       </c>
       <c r="D63">
-        <v>-10.94338773675251</v>
+        <v>-7.497154915670768</v>
       </c>
       <c r="E63">
-        <v>1.742222826219558E-27</v>
+        <v>9.984362862598989E-14</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>-218534.1111113461</v>
+        <v>-218534.1111110331</v>
       </c>
       <c r="C64">
-        <v>43042.78530744155</v>
+        <v>62828.35211317935</v>
       </c>
       <c r="D64">
-        <v>-5.077136843037068</v>
+        <v>-3.478272209294373</v>
       </c>
       <c r="E64">
-        <v>4.005541742686802E-07</v>
+        <v>0.000516127455034177</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>-413267.6666667716</v>
+        <v>-413267.6666666286</v>
       </c>
       <c r="C65">
-        <v>43042.78530742923</v>
+        <v>62828.35211318111</v>
       </c>
       <c r="D65">
-        <v>-9.601322584378412</v>
+        <v>-6.577725704506054</v>
       </c>
       <c r="E65">
-        <v>1.344740929876088E-21</v>
+        <v>6.170941161109584E-11</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>-352969.0000001211</v>
+        <v>-352968.99999992</v>
       </c>
       <c r="C66">
-        <v>43042.7853074294</v>
+        <v>62828.35211317681</v>
       </c>
       <c r="D66">
-        <v>-8.200421916915234</v>
+        <v>-5.617989142291906</v>
       </c>
       <c r="E66">
-        <v>3.191544551964855E-16</v>
+        <v>2.220026232797705E-08</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-356605.0000001459</v>
+        <v>-356604.9999999326</v>
       </c>
       <c r="C67">
-        <v>43042.78530743161</v>
+        <v>62828.35211317844</v>
       </c>
       <c r="D67">
-        <v>-8.284896004129543</v>
+        <v>-5.675861104196199</v>
       </c>
       <c r="E67">
-        <v>1.593627522747727E-16</v>
+        <v>1.594634374454653E-08</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-444658.5555557272</v>
+        <v>-444658.5555554464</v>
       </c>
       <c r="C68">
-        <v>43042.78530743454</v>
+        <v>62828.35211317315</v>
       </c>
       <c r="D68">
-        <v>-10.33061760245622</v>
+        <v>-7.077355057068501</v>
       </c>
       <c r="E68">
-        <v>1.042469558113746E-24</v>
+        <v>2.064973751385607E-12</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-385008.3390321463</v>
+        <v>-385008.3390318986</v>
       </c>
       <c r="C69">
-        <v>43202.03333159649</v>
+        <v>63060.80200841511</v>
       </c>
       <c r="D69">
-        <v>-8.91181061032524</v>
+        <v>-6.105351133664957</v>
       </c>
       <c r="E69">
-        <v>7.472466510536604E-19</v>
+        <v>1.242579082170319E-09</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-240997.7834766269</v>
+        <v>-240997.7834763579</v>
       </c>
       <c r="C70">
-        <v>43202.03333159925</v>
+        <v>63060.80200841781</v>
       </c>
       <c r="D70">
-        <v>-5.578389832414531</v>
+        <v>-3.821673302603855</v>
       </c>
       <c r="E70">
-        <v>2.587592532578458E-08</v>
+        <v>0.0001368530558314236</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-435662.3333335829</v>
+        <v>-435662.3333332243</v>
       </c>
       <c r="C71">
-        <v>43042.78530744027</v>
+        <v>62828.35211317312</v>
       </c>
       <c r="D71">
-        <v>-10.12161109514155</v>
+        <v>-6.934167755163512</v>
       </c>
       <c r="E71">
-        <v>8.534901125938049E-24</v>
+        <v>5.595317905188333E-12</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>-455214.8069804432</v>
+        <v>-455214.806980099</v>
       </c>
       <c r="C72">
-        <v>43052.75556607662</v>
+        <v>62842.90542137282</v>
       </c>
       <c r="D72">
-        <v>-10.57341861154015</v>
+        <v>-7.243694477965381</v>
       </c>
       <c r="E72">
-        <v>8.619890945146804E-26</v>
+        <v>6.33705716593941E-13</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>-456310.000000249</v>
+        <v>-456309.9999998708</v>
       </c>
       <c r="C73">
-        <v>43042.78530744037</v>
+        <v>62828.35211317026</v>
       </c>
       <c r="D73">
-        <v>-10.60131208380168</v>
+        <v>-7.262803887931637</v>
       </c>
       <c r="E73">
-        <v>6.451178360098572E-26</v>
+        <v>5.52401616778306E-13</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>-121993.362535963</v>
+        <v>-121993.3625356687</v>
       </c>
       <c r="C74">
-        <v>43052.75556606989</v>
+        <v>62842.90542137247</v>
       </c>
       <c r="D74">
-        <v>-2.833578499958006</v>
+        <v>-1.941243195515584</v>
       </c>
       <c r="E74">
-        <v>0.004625989035317827</v>
+        <v>0.0523778114870773</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>-142896.251424893</v>
+        <v>-142896.2514245753</v>
       </c>
       <c r="C75">
-        <v>43052.75556607937</v>
+        <v>62842.90542137984</v>
       </c>
       <c r="D75">
-        <v>-3.319096525786119</v>
+        <v>-2.273864495385988</v>
       </c>
       <c r="E75">
-        <v>0.000911151340548658</v>
+        <v>0.0230862515345812</v>
       </c>
     </row>
     <row r="76">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>-314875.5847582176</v>
+        <v>-314875.5847578746</v>
       </c>
       <c r="C76">
-        <v>43052.7555660771</v>
+        <v>62842.90542137175</v>
       </c>
       <c r="D76">
-        <v>-7.313715013547704</v>
+        <v>-5.010519208916</v>
       </c>
       <c r="E76">
-        <v>3.121295320809111E-13</v>
+        <v>5.936372929190363E-07</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-415688.1403137785</v>
+        <v>-415688.1403134608</v>
       </c>
       <c r="C77">
-        <v>43052.75556607711</v>
+        <v>62842.90542137589</v>
       </c>
       <c r="D77">
-        <v>-9.655320196073928</v>
+        <v>-6.614718678682626</v>
       </c>
       <c r="E77">
-        <v>8.046647857154083E-22</v>
+        <v>4.836054197885363E-11</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>-339254.4736471555</v>
+        <v>-339254.4736467857</v>
       </c>
       <c r="C78">
-        <v>43052.75556608171</v>
+        <v>62842.90542137521</v>
       </c>
       <c r="D78">
-        <v>-7.879971193166337</v>
+        <v>-5.398453037331922</v>
       </c>
       <c r="E78">
-        <v>4.185459915159831E-15</v>
+        <v>7.572654284639546E-08</v>
       </c>
     </row>
     <row r="79">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>-292296.9180915448</v>
+        <v>-292296.9180912444</v>
       </c>
       <c r="C79">
-        <v>43052.75556607694</v>
+        <v>62842.90542137749</v>
       </c>
       <c r="D79">
-        <v>-6.789273166102699</v>
+        <v>-4.651231768030456</v>
       </c>
       <c r="E79">
-        <v>1.292536599504134E-11</v>
+        <v>3.529224208412405E-06</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>-335946.6958693831</v>
+        <v>-335946.6958689675</v>
       </c>
       <c r="C80">
-        <v>43052.75556608251</v>
+        <v>62842.90542136968</v>
       </c>
       <c r="D80">
-        <v>-7.803140390252884</v>
+        <v>-5.345817377735833</v>
       </c>
       <c r="E80">
-        <v>7.647277455015662E-15</v>
+        <v>1.009567610033707E-07</v>
       </c>
     </row>
     <row r="81">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-123266.0292026568</v>
+        <v>-123266.0292023498</v>
       </c>
       <c r="C81">
-        <v>43052.75556607826</v>
+        <v>62842.90542137728</v>
       </c>
       <c r="D81">
-        <v>-2.863139132022932</v>
+        <v>-1.961494752284613</v>
       </c>
       <c r="E81">
-        <v>0.004216415983384792</v>
+        <v>0.04996848465349207</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-446110.140313805</v>
+        <v>-446110.1403134108</v>
       </c>
       <c r="C82">
-        <v>43052.75556607912</v>
+        <v>62842.90542137117</v>
       </c>
       <c r="D82">
-        <v>-10.36194163295998</v>
+        <v>-7.098814692321671</v>
       </c>
       <c r="E82">
-        <v>7.580794008249335E-25</v>
+        <v>1.775574106038327E-12</v>
       </c>
     </row>
     <row r="83">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>-372969.3333335425</v>
+        <v>-372969.3333332477</v>
       </c>
       <c r="C83">
-        <v>43042.78530743759</v>
+        <v>62828.35211317583</v>
       </c>
       <c r="D83">
-        <v>-8.665083606220417</v>
+        <v>-5.936322070987943</v>
       </c>
       <c r="E83">
-        <v>6.442301892746E-18</v>
+        <v>3.461963766717399E-09</v>
       </c>
     </row>
     <row r="84">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>-328855.8945877478</v>
+        <v>-328855.8945874379</v>
       </c>
       <c r="C84">
-        <v>43202.03333160158</v>
+        <v>63060.80200841236</v>
       </c>
       <c r="D84">
-        <v>-7.612046684552578</v>
+        <v>-5.214901874282668</v>
       </c>
       <c r="E84">
-        <v>3.342782292685546E-14</v>
+        <v>2.041377350479985E-07</v>
       </c>
     </row>
     <row r="85">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>-385238.8945877123</v>
+        <v>-385238.8945874422</v>
       </c>
       <c r="C85">
-        <v>43202.0333315981</v>
+        <v>63060.80200841337</v>
       </c>
       <c r="D85">
-        <v>-8.917147293295278</v>
+        <v>-6.109007217130617</v>
       </c>
       <c r="E85">
-        <v>7.127799551018428E-19</v>
+        <v>1.214990043516198E-09</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-439395.3333336285</v>
+        <v>-439395.3333332522</v>
       </c>
       <c r="C86">
-        <v>43042.78530744321</v>
+        <v>62828.35211317629</v>
       </c>
       <c r="D86">
-        <v>-10.20833875398964</v>
+        <v>-6.993583606040541</v>
       </c>
       <c r="E86">
-        <v>3.584267303756833E-24</v>
+        <v>3.708237067231656E-12</v>
       </c>
     </row>
     <row r="87">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>-466633.6723655263</v>
+        <v>-466633.6723652162</v>
       </c>
       <c r="C87">
-        <v>43202.03333160123</v>
+        <v>63060.80200841356</v>
       </c>
       <c r="D87">
-        <v>-10.80119698959158</v>
+        <v>-7.399742114014947</v>
       </c>
       <c r="E87">
-        <v>7.919644312579451E-27</v>
+        <v>2.045235971410076E-13</v>
       </c>
     </row>
     <row r="88">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>-427786.1168099485</v>
+        <v>-427786.1168096756</v>
       </c>
       <c r="C88">
-        <v>43202.03333159967</v>
+        <v>63060.80200841488</v>
       </c>
       <c r="D88">
-        <v>-9.901990342131626</v>
+        <v>-6.783708788743148</v>
       </c>
       <c r="E88">
-        <v>7.446625661991419E-23</v>
+        <v>1.563196232881264E-11</v>
       </c>
     </row>
     <row r="89">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>-311857.1168099248</v>
+        <v>-311857.1168096894</v>
       </c>
       <c r="C89">
-        <v>43202.03333159597</v>
+        <v>63060.80200841663</v>
       </c>
       <c r="D89">
-        <v>-7.218574978086666</v>
+        <v>-4.945340161834071</v>
       </c>
       <c r="E89">
-        <v>6.252860690085002E-13</v>
+        <v>8.276123155504265E-07</v>
       </c>
     </row>
     <row r="90">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>-396439.5612544951</v>
+        <v>-396439.561254096</v>
       </c>
       <c r="C90">
-        <v>43202.03333160768</v>
+        <v>63060.80200841185</v>
       </c>
       <c r="D90">
-        <v>-9.176409781723168</v>
+        <v>-6.286624156813194</v>
       </c>
       <c r="E90">
-        <v>6.962729326147732E-20</v>
+        <v>4.021828348456221E-10</v>
       </c>
     </row>
     <row r="91">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>-402321.6723655576</v>
+        <v>-402321.6723652381</v>
       </c>
       <c r="C91">
-        <v>43202.03333160391</v>
+        <v>63060.8020084155</v>
       </c>
       <c r="D91">
-        <v>-9.312563352689331</v>
+        <v>-6.379900977338475</v>
       </c>
       <c r="E91">
-        <v>2.001826190908765E-20</v>
+        <v>2.224532426494969E-10</v>
       </c>
     </row>
     <row r="92">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>-96721.78347664334</v>
+        <v>-96721.78347633281</v>
       </c>
       <c r="C92">
-        <v>43202.03333159808</v>
+        <v>63060.80200841049</v>
       </c>
       <c r="D92">
-        <v>-2.238824796375979</v>
+        <v>-1.533786130145204</v>
       </c>
       <c r="E92">
-        <v>0.02522193143121544</v>
+        <v>0.1252502661059986</v>
       </c>
     </row>
     <row r="93">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>-263184.8945877698</v>
+        <v>-263184.8945874537</v>
       </c>
       <c r="C93">
-        <v>43202.03333160352</v>
+        <v>63060.80200841399</v>
       </c>
       <c r="D93">
-        <v>-6.091956194923874</v>
+        <v>-4.173510107789905</v>
       </c>
       <c r="E93">
-        <v>1.220250954215879E-09</v>
+        <v>3.13606147394612E-05</v>
       </c>
     </row>
     <row r="94">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>-281056.1168100496</v>
+        <v>-281056.1168096894</v>
       </c>
       <c r="C94">
-        <v>43202.03333161002</v>
+        <v>63060.80200841653</v>
       </c>
       <c r="D94">
-        <v>-6.505622424128052</v>
+        <v>-4.456906792466385</v>
       </c>
       <c r="E94">
-        <v>8.689175991707081E-11</v>
+        <v>8.804336618058464E-06</v>
       </c>
     </row>
     <row r="95">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>-198083.4449532883</v>
+        <v>-198083.4449529861</v>
       </c>
       <c r="C95">
-        <v>44489.44220394045</v>
+        <v>64939.99679953312</v>
       </c>
       <c r="D95">
-        <v>-4.452369711565948</v>
+        <v>-3.050253383357269</v>
       </c>
       <c r="E95">
-        <v>8.723700769178391E-06</v>
+        <v>0.002318374481304277</v>
       </c>
     </row>
     <row r="96">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>-364866.3199532701</v>
+        <v>-364866.319952969</v>
       </c>
       <c r="C96">
-        <v>44489.44220393896</v>
+        <v>64939.99679953056</v>
       </c>
       <c r="D96">
-        <v>-8.201188908611805</v>
+        <v>-5.618514597087363</v>
       </c>
       <c r="E96">
-        <v>3.17157828178155E-16</v>
+        <v>2.213397610760152E-08</v>
       </c>
     </row>
     <row r="97">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>-122929.2514248729</v>
+        <v>-122929.251424575</v>
       </c>
       <c r="C97">
-        <v>43052.75556607518</v>
+        <v>62842.90542137801</v>
       </c>
       <c r="D97">
-        <v>-2.855316687829827</v>
+        <v>-1.956135710153795</v>
       </c>
       <c r="E97">
-        <v>0.004321469084203022</v>
+        <v>0.05059682087877825</v>
       </c>
     </row>
     <row r="98">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B98">
-        <v>-280055.8945877114</v>
+        <v>-280055.8945874696</v>
       </c>
       <c r="C98">
-        <v>43202.03333159738</v>
+        <v>63060.80200841682</v>
       </c>
       <c r="D98">
-        <v>-6.482470221670848</v>
+        <v>-4.44104555711312</v>
       </c>
       <c r="E98">
-        <v>1.01172489971634E-10</v>
+        <v>9.471735840291151E-06</v>
       </c>
     </row>
     <row r="99">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>-332597.0056988557</v>
+        <v>-332597.0056985425</v>
       </c>
       <c r="C99">
-        <v>43202.03333160038</v>
+        <v>63060.80200841197</v>
       </c>
       <c r="D99">
-        <v>-7.698642402916152</v>
+        <v>-5.274227334663075</v>
       </c>
       <c r="E99">
-        <v>1.720534927195497E-14</v>
+        <v>1.486644821694983E-07</v>
       </c>
     </row>
     <row r="100">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>-449811.7834766599</v>
+        <v>-449811.7834763601</v>
       </c>
       <c r="C100">
-        <v>43202.03333160332</v>
+        <v>63060.8020084167</v>
       </c>
       <c r="D100">
-        <v>-10.41181974061419</v>
+        <v>-7.132985454519337</v>
       </c>
       <c r="E100">
-        <v>4.556322257823743E-25</v>
+        <v>1.394913546522561E-12</v>
       </c>
     </row>
     <row r="101">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B101">
-        <v>-430482.2222224204</v>
+        <v>-430482.2222221303</v>
       </c>
       <c r="C101">
-        <v>43042.78530743624</v>
+        <v>62828.35211317505</v>
       </c>
       <c r="D101">
-        <v>-10.00126314195677</v>
+        <v>-6.851719132258739</v>
       </c>
       <c r="E101">
-        <v>2.812549723174969E-23</v>
+        <v>9.84995002462164E-12</v>
       </c>
     </row>
     <row r="102">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B102">
-        <v>981345.970797314</v>
+        <v>981345.970797674</v>
       </c>
       <c r="C102">
-        <v>43052.75556607663</v>
+        <v>62842.90542137554</v>
       </c>
       <c r="D102">
-        <v>22.79403392173495</v>
+        <v>15.61585932759685</v>
       </c>
       <c r="E102">
-        <v>3.00073789549798E-108</v>
+        <v>8.696548676834124E-52</v>
       </c>
     </row>
     <row r="103">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>-405452.0292025743</v>
+        <v>-405452.0292023158</v>
       </c>
       <c r="C103">
-        <v>43052.7555660704</v>
+        <v>62842.90542137219</v>
       </c>
       <c r="D103">
-        <v>-9.417562798747042</v>
+        <v>-6.451834562448889</v>
       </c>
       <c r="E103">
-        <v>7.565703501166127E-21</v>
+        <v>1.401327018243518E-10</v>
       </c>
     </row>
     <row r="104">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>-42726.80698041852</v>
+        <v>-42726.80698012272</v>
       </c>
       <c r="C104">
-        <v>43052.75556607267</v>
+        <v>62842.90542137467</v>
       </c>
       <c r="D104">
-        <v>-0.9924290888848236</v>
+        <v>-0.6798986567159911</v>
       </c>
       <c r="E104">
-        <v>0.3210481045812414</v>
+        <v>0.4966522074473334</v>
       </c>
     </row>
     <row r="105">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B105">
-        <v>-400181.6958693509</v>
+        <v>-400181.6958690113</v>
       </c>
       <c r="C105">
-        <v>43052.75556607881</v>
+        <v>62842.90542137572</v>
       </c>
       <c r="D105">
-        <v>-9.295147095872613</v>
+        <v>-6.367969354467361</v>
       </c>
       <c r="E105">
-        <v>2.350122401607515E-20</v>
+        <v>2.400655699756403E-10</v>
       </c>
     </row>
     <row r="106">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B106">
-        <v>-178316.1403137378</v>
+        <v>-178316.1403134468</v>
       </c>
       <c r="C106">
-        <v>43052.75556607431</v>
+        <v>62842.90542137367</v>
       </c>
       <c r="D106">
-        <v>-4.141805512078567</v>
+        <v>-2.837490391601138</v>
       </c>
       <c r="E106">
-        <v>3.516759217958256E-05</v>
+        <v>0.004595666193536933</v>
       </c>
     </row>
     <row r="107">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B107">
-        <v>17734.97079736073</v>
+        <v>17734.97079765002</v>
       </c>
       <c r="C107">
-        <v>43052.75556608175</v>
+        <v>62842.90542137771</v>
       </c>
       <c r="D107">
-        <v>0.4119357881782803</v>
+        <v>0.2822111848383285</v>
       </c>
       <c r="E107">
-        <v>0.6804084953583609</v>
+        <v>0.7778125965963436</v>
       </c>
     </row>
     <row r="108">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B108">
-        <v>-383133.339032253</v>
+        <v>-383133.3390318966</v>
       </c>
       <c r="C108">
-        <v>43202.03333160607</v>
+        <v>63060.80200841479</v>
       </c>
       <c r="D108">
-        <v>-8.86840987532773</v>
+        <v>-6.075617924757307</v>
       </c>
       <c r="E108">
-        <v>1.096030114480416E-18</v>
+        <v>1.490832507425771E-09</v>
       </c>
     </row>
     <row r="109">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B109">
-        <v>-418668.0292027234</v>
+        <v>-418668.0292022993</v>
       </c>
       <c r="C109">
-        <v>43052.75556608151</v>
+        <v>62842.90542137041</v>
       </c>
       <c r="D109">
-        <v>-9.724535019834246</v>
+        <v>-6.662136742327109</v>
       </c>
       <c r="E109">
-        <v>4.14984714426697E-22</v>
+        <v>3.531875221095862E-11</v>
       </c>
     </row>
     <row r="110">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B110">
-        <v>-44048.78347664317</v>
+        <v>-44048.78347634181</v>
       </c>
       <c r="C110">
-        <v>43202.03333160135</v>
+        <v>63060.8020084144</v>
       </c>
       <c r="D110">
-        <v>-1.019599775282393</v>
+        <v>-0.6985128966559011</v>
       </c>
       <c r="E110">
-        <v>0.3079797897025621</v>
+        <v>0.4849427514524369</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>-248484.4736471279</v>
+        <v>-248484.4736467954</v>
       </c>
       <c r="C111">
-        <v>43052.75556608023</v>
+        <v>62842.90542137666</v>
       </c>
       <c r="D111">
-        <v>-5.771627631725859</v>
+        <v>-3.95405769323757</v>
       </c>
       <c r="E111">
-        <v>8.444241125460199E-09</v>
+        <v>7.967908950984399E-05</v>
       </c>
     </row>
     <row r="112">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B112">
-        <v>-464542.8069804335</v>
+        <v>-464542.8069801253</v>
       </c>
       <c r="C112">
-        <v>43052.7555660765</v>
+        <v>62842.90542137576</v>
       </c>
       <c r="D112">
-        <v>-10.79008302424365</v>
+        <v>-7.392128098872286</v>
       </c>
       <c r="E112">
-        <v>8.907780669677613E-27</v>
+        <v>2.162364118445075E-13</v>
       </c>
     </row>
     <row r="113">
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="B113">
-        <v>3017114.777778034</v>
+        <v>3017114.777778064</v>
       </c>
       <c r="C113">
-        <v>43042.78530744115</v>
+        <v>62828.35211317576</v>
       </c>
       <c r="D113">
-        <v>70.09571421151597</v>
+        <v>48.02154881196293</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B114">
-        <v>-276850.2222223738</v>
+        <v>-276850.2222221415</v>
       </c>
       <c r="C114">
-        <v>43042.78530743068</v>
+        <v>62828.35211317713</v>
       </c>
       <c r="D114">
-        <v>-6.431977397489186</v>
+        <v>-4.406453661611746</v>
       </c>
       <c r="E114">
-        <v>1.407407210876922E-10</v>
+        <v>1.109900744823307E-05</v>
       </c>
     </row>
     <row r="115">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B115">
-        <v>-446042.1403137119</v>
+        <v>-446042.1403134454</v>
       </c>
       <c r="C115">
-        <v>43052.75556607214</v>
+        <v>62842.90542137409</v>
       </c>
       <c r="D115">
-        <v>-10.36036217540549</v>
+        <v>-7.097732629047699</v>
       </c>
       <c r="E115">
-        <v>7.703711400090907E-25</v>
+        <v>1.789162033204774E-12</v>
       </c>
     </row>
     <row r="116">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B116">
-        <v>-8923.918091542779</v>
+        <v>-8923.918091239086</v>
       </c>
       <c r="C116">
-        <v>43052.75556607715</v>
+        <v>62842.90542137538</v>
       </c>
       <c r="D116">
-        <v>-0.2072786741337937</v>
+        <v>-0.1420035886533614</v>
       </c>
       <c r="E116">
-        <v>0.8358027476665565</v>
+        <v>0.887092362257478</v>
       </c>
     </row>
     <row r="117">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B117">
-        <v>-435187.450143376</v>
+        <v>-435187.4501430211</v>
       </c>
       <c r="C117">
-        <v>43202.03333160657</v>
+        <v>63060.80200841611</v>
       </c>
       <c r="D117">
-        <v>-10.07330943900257</v>
+        <v>-6.901076996847278</v>
       </c>
       <c r="E117">
-        <v>1.379595875492151E-23</v>
+        <v>7.026225962282936E-12</v>
       </c>
     </row>
     <row r="118">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B118">
-        <v>-257613.6958693448</v>
+        <v>-257613.6958690021</v>
       </c>
       <c r="C118">
-        <v>43052.75556607902</v>
+        <v>62842.90542137317</v>
       </c>
       <c r="D118">
-        <v>-5.983674969978391</v>
+        <v>-4.099328223952333</v>
       </c>
       <c r="E118">
-        <v>2.372284057594347E-09</v>
+        <v>4.319619620900725E-05</v>
       </c>
     </row>
     <row r="119">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B119">
-        <v>-244089.0000002379</v>
+        <v>-244088.9999998927</v>
       </c>
       <c r="C119">
-        <v>43042.7853074413</v>
+        <v>62828.35211317264</v>
       </c>
       <c r="D119">
-        <v>-5.670845839942413</v>
+        <v>-3.885013561396859</v>
       </c>
       <c r="E119">
-        <v>1.520990968159901E-08</v>
+        <v>0.0001058620618949443</v>
       </c>
     </row>
     <row r="120">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B120">
-        <v>-61611.7777779815</v>
+        <v>-61611.77777767663</v>
       </c>
       <c r="C120">
-        <v>43042.78530743404</v>
+        <v>62828.35211317555</v>
       </c>
       <c r="D120">
-        <v>-1.431407780372902</v>
+        <v>-0.9806365391645567</v>
       </c>
       <c r="E120">
-        <v>0.1523912705711107</v>
+        <v>0.3268979833868814</v>
       </c>
     </row>
     <row r="121">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B121">
-        <v>-271657.6666668692</v>
+        <v>-271657.6666665618</v>
       </c>
       <c r="C121">
-        <v>43042.78530743619</v>
+        <v>62828.35211317323</v>
       </c>
       <c r="D121">
-        <v>-6.31134032629475</v>
+        <v>-4.323806968185678</v>
       </c>
       <c r="E121">
-        <v>3.066742879760433E-10</v>
+        <v>1.613750873657262E-05</v>
       </c>
     </row>
     <row r="122">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B122">
-        <v>111249.1930195868</v>
+        <v>111249.1930198808</v>
       </c>
       <c r="C122">
-        <v>43052.75556607915</v>
+        <v>62842.90542137765</v>
       </c>
       <c r="D122">
-        <v>2.584020269012442</v>
+        <v>1.770274500740007</v>
       </c>
       <c r="E122">
-        <v>0.009800632944281358</v>
+        <v>0.07684320459349932</v>
       </c>
     </row>
     <row r="123">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B123">
-        <v>-341216.1403137682</v>
+        <v>-341216.1403134382</v>
       </c>
       <c r="C123">
-        <v>43052.7555660764</v>
+        <v>62842.90542137263</v>
       </c>
       <c r="D123">
-        <v>-7.92553544662379</v>
+        <v>-5.429668441099667</v>
       </c>
       <c r="E123">
-        <v>2.919893120949311E-15</v>
+        <v>6.377612114652928E-08</v>
       </c>
     </row>
     <row r="124">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B124">
-        <v>-407305.2514249231</v>
+        <v>-407305.251424578</v>
       </c>
       <c r="C124">
-        <v>43052.75556607969</v>
+        <v>62842.90542137618</v>
       </c>
       <c r="D124">
-        <v>-9.46060817872085</v>
+        <v>-6.481324322825343</v>
       </c>
       <c r="E124">
-        <v>5.062088622766141E-21</v>
+        <v>1.157889666417647E-10</v>
       </c>
     </row>
     <row r="125">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B125">
-        <v>-386047.9180915304</v>
+        <v>-386047.9180912139</v>
       </c>
       <c r="C125">
-        <v>43052.75556607491</v>
+        <v>62842.90542137273</v>
       </c>
       <c r="D125">
-        <v>-8.966857359433035</v>
+        <v>-6.143062856541956</v>
       </c>
       <c r="E125">
-        <v>4.585327473242422E-19</v>
+        <v>9.851107957350607E-10</v>
       </c>
     </row>
     <row r="126">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B126">
-        <v>-101922.4501433213</v>
+        <v>-101922.4501430078</v>
       </c>
       <c r="C126">
-        <v>43202.03333160728</v>
+        <v>63060.80200841312</v>
       </c>
       <c r="D126">
-        <v>-2.359204932809336</v>
+        <v>-1.616256801323428</v>
       </c>
       <c r="E126">
-        <v>0.01836179864701874</v>
+        <v>0.1062063137338959</v>
       </c>
     </row>
     <row r="127">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B127">
-        <v>-39446.36253598155</v>
+        <v>-39446.36253567948</v>
       </c>
       <c r="C127">
-        <v>43052.75556607369</v>
+        <v>62842.90542137322</v>
       </c>
       <c r="D127">
-        <v>-0.9162331659687297</v>
+        <v>-0.6276979441224809</v>
       </c>
       <c r="E127">
-        <v>0.3595996821886177</v>
+        <v>0.5302779433513427</v>
       </c>
     </row>
     <row r="128">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B128">
-        <v>-386727.029202656</v>
+        <v>-386727.0292023164</v>
       </c>
       <c r="C128">
-        <v>43052.75556607603</v>
+        <v>62842.90542137174</v>
       </c>
       <c r="D128">
-        <v>-8.982631288469316</v>
+        <v>-6.153869344665873</v>
       </c>
       <c r="E128">
-        <v>3.984448415493126E-19</v>
+        <v>9.214771965107161E-10</v>
       </c>
     </row>
     <row r="129">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B129">
-        <v>-207675.8069804429</v>
+        <v>-207675.806980125</v>
       </c>
       <c r="C129">
-        <v>43052.75556607892</v>
+        <v>62842.90542137567</v>
       </c>
       <c r="D129">
-        <v>-4.823751795902926</v>
+        <v>-3.304681818697154</v>
       </c>
       <c r="E129">
-        <v>1.461131284041863E-06</v>
+        <v>0.0009686849290060868</v>
       </c>
     </row>
     <row r="130">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B130">
-        <v>-421452.3625359631</v>
+        <v>-421452.3625356462</v>
       </c>
       <c r="C130">
-        <v>43052.75556607411</v>
+        <v>62842.90542137167</v>
       </c>
       <c r="D130">
-        <v>-9.789207612719467</v>
+        <v>-6.706442990019973</v>
       </c>
       <c r="E130">
-        <v>2.226325443470825E-22</v>
+        <v>2.628282393920934E-11</v>
       </c>
     </row>
     <row r="131">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B131">
-        <v>-422038.55555574</v>
+        <v>-422038.5555554538</v>
       </c>
       <c r="C131">
-        <v>43042.78530743513</v>
+        <v>62828.3521131736</v>
       </c>
       <c r="D131">
-        <v>-9.805093990579598</v>
+        <v>-6.71732651518903</v>
       </c>
       <c r="E131">
-        <v>1.909413828797572E-22</v>
+        <v>2.443593700119827E-11</v>
       </c>
     </row>
     <row r="132">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B132">
-        <v>-430525.0292026923</v>
+        <v>-430525.0292023399</v>
       </c>
       <c r="C132">
-        <v>43052.7555660787</v>
+        <v>62842.90542137471</v>
       </c>
       <c r="D132">
-        <v>-9.999941317157019</v>
+        <v>-6.85081356941695</v>
       </c>
       <c r="E132">
-        <v>2.849419869853471E-23</v>
+        <v>9.910983511673756E-12</v>
       </c>
     </row>
     <row r="133">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B133">
-        <v>-158839.3333335317</v>
+        <v>-158839.3333332306</v>
       </c>
       <c r="C133">
-        <v>43042.7853074367</v>
+        <v>62828.3521131724</v>
       </c>
       <c r="D133">
-        <v>-3.690266143303889</v>
+        <v>-2.528147372815287</v>
       </c>
       <c r="E133">
-        <v>0.0002269929632541416</v>
+        <v>0.01154776621706823</v>
       </c>
     </row>
     <row r="134">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B134">
-        <v>-414618.8069804314</v>
+        <v>-414618.8069801304</v>
       </c>
       <c r="C134">
-        <v>43052.75556607598</v>
+        <v>62842.90542137624</v>
       </c>
       <c r="D134">
-        <v>-9.630482451793078</v>
+        <v>-6.597702703272793</v>
       </c>
       <c r="E134">
-        <v>1.019403754421603E-21</v>
+        <v>5.410681331497185E-11</v>
       </c>
     </row>
     <row r="135">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B135">
-        <v>-340306.7834766762</v>
+        <v>-340306.7834763415</v>
       </c>
       <c r="C135">
-        <v>43202.03333160486</v>
+        <v>63060.80200841418</v>
       </c>
       <c r="D135">
-        <v>-7.877101081437328</v>
+        <v>-5.396486765755604</v>
       </c>
       <c r="E135">
-        <v>4.281195178631665E-15</v>
+        <v>7.65479346282276E-08</v>
       </c>
     </row>
     <row r="136">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B136">
-        <v>-264286.6958692967</v>
+        <v>-264286.6958690226</v>
       </c>
       <c r="C136">
-        <v>43052.75556607293</v>
+        <v>62842.90542137747</v>
       </c>
       <c r="D136">
-        <v>-6.138670856124335</v>
+        <v>-4.205513639080082</v>
       </c>
       <c r="E136">
-        <v>9.128479543401388E-10</v>
+        <v>2.727130018477127E-05</v>
       </c>
     </row>
     <row r="137">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B137">
-        <v>-31016.47364708973</v>
+        <v>-31016.47364679323</v>
       </c>
       <c r="C137">
-        <v>43052.75556607814</v>
+        <v>62842.90542137752</v>
       </c>
       <c r="D137">
-        <v>-0.7204294647176551</v>
+        <v>-0.4935556915903228</v>
       </c>
       <c r="E137">
-        <v>0.4713025849310126</v>
+        <v>0.6216775584608496</v>
       </c>
     </row>
     <row r="138">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B138">
-        <v>20673.193019583</v>
+        <v>20673.1930198761</v>
       </c>
       <c r="C138">
-        <v>43052.75556607777</v>
+        <v>62842.90542137391</v>
       </c>
       <c r="D138">
-        <v>0.4801828070645464</v>
+        <v>0.3289662195160825</v>
       </c>
       <c r="E138">
-        <v>0.631123589759797</v>
+        <v>0.742217803865852</v>
       </c>
     </row>
     <row r="139">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B139">
-        <v>-307903.1403137734</v>
+        <v>-307903.1403134633</v>
       </c>
       <c r="C139">
-        <v>43052.7555660767</v>
+        <v>62842.90542137672</v>
       </c>
       <c r="D139">
-        <v>-7.151763836375315</v>
+        <v>-4.899568825612041</v>
       </c>
       <c r="E139">
-        <v>1.013343598512615E-12</v>
+        <v>1.042655536180662E-06</v>
       </c>
     </row>
     <row r="140">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B140">
-        <v>-293410.251424892</v>
+        <v>-293410.251424567</v>
       </c>
       <c r="C140">
-        <v>43052.75556607769</v>
+        <v>62842.90542137511</v>
       </c>
       <c r="D140">
-        <v>-6.815132912330403</v>
+        <v>-4.66894790202949</v>
       </c>
       <c r="E140">
-        <v>1.082312001370396E-11</v>
+        <v>3.241353527775532E-06</v>
       </c>
     </row>
     <row r="141">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B141">
-        <v>-350372.3625359474</v>
+        <v>-350372.3625356656</v>
       </c>
       <c r="C141">
-        <v>43052.75556607228</v>
+        <v>62842.90542137333</v>
       </c>
       <c r="D141">
-        <v>-8.138209922434287</v>
+        <v>-5.575368614585114</v>
       </c>
       <c r="E141">
-        <v>5.299945513131474E-16</v>
+        <v>2.827004422651748E-08</v>
       </c>
     </row>
     <row r="142">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>-161904.45014332</v>
+        <v>-161904.4501430152</v>
       </c>
       <c r="C142">
-        <v>43202.03333160165</v>
+        <v>63060.80200841514</v>
       </c>
       <c r="D142">
-        <v>-3.747611805689925</v>
+        <v>-2.567434047562699</v>
       </c>
       <c r="E142">
-        <v>0.0001810379399000565</v>
+        <v>0.01032201413210007</v>
       </c>
     </row>
     <row r="143">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B143">
-        <v>-390859.7834766412</v>
+        <v>-390859.7834763264</v>
       </c>
       <c r="C143">
-        <v>43202.0333316016</v>
+        <v>63060.80200841249</v>
       </c>
       <c r="D143">
-        <v>-9.047254338159437</v>
+        <v>-6.198141651039968</v>
       </c>
       <c r="E143">
-        <v>2.235651700020257E-19</v>
+        <v>7.001458561706124E-10</v>
       </c>
     </row>
     <row r="144">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B144">
-        <v>-395787.5612543916</v>
+        <v>-395787.5612541029</v>
       </c>
       <c r="C144">
-        <v>43202.03333159881</v>
+        <v>63060.80200841273</v>
       </c>
       <c r="D144">
-        <v>-9.161317899472682</v>
+        <v>-6.276284928969063</v>
       </c>
       <c r="E144">
-        <v>7.985937138225086E-20</v>
+        <v>4.292575316842592E-10</v>
       </c>
     </row>
     <row r="145">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B145">
-        <v>-409982.339032165</v>
+        <v>-409982.3390319007</v>
       </c>
       <c r="C145">
-        <v>43202.03333159901</v>
+        <v>63060.80200841532</v>
       </c>
       <c r="D145">
-        <v>-9.489885253440006</v>
+        <v>-6.501381618603415</v>
       </c>
       <c r="E145">
-        <v>3.847742621662474E-21</v>
+        <v>1.016493905509395E-10</v>
       </c>
     </row>
     <row r="146">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B146">
-        <v>-378123.0292026872</v>
+        <v>-378123.0292023759</v>
       </c>
       <c r="C146">
-        <v>43052.75556607873</v>
+        <v>62842.90542137926</v>
       </c>
       <c r="D146">
-        <v>-8.78278345325265</v>
+        <v>-6.01695651509037</v>
       </c>
       <c r="E146">
-        <v>2.321675994345939E-18</v>
+        <v>2.130403030443806E-09</v>
       </c>
     </row>
     <row r="147">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B147">
-        <v>-438436.339032156</v>
+        <v>-438436.3390319064</v>
       </c>
       <c r="C147">
-        <v>43202.0333315981</v>
+        <v>63060.80200841565</v>
       </c>
       <c r="D147">
-        <v>-10.14851166071117</v>
+        <v>-6.952596939274509</v>
       </c>
       <c r="E147">
-        <v>6.525988185602634E-24</v>
+        <v>4.926731664512371E-12</v>
       </c>
     </row>
     <row r="148">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B148">
-        <v>-160660.2514248686</v>
+        <v>-160660.2514245641</v>
       </c>
       <c r="C148">
-        <v>43052.75556607483</v>
+        <v>62842.90542137445</v>
       </c>
       <c r="D148">
-        <v>-3.731706584455361</v>
+        <v>-2.556537613073496</v>
       </c>
       <c r="E148">
-        <v>0.0001928200088484945</v>
+        <v>0.01064980484905985</v>
       </c>
     </row>
     <row r="149">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B149">
-        <v>-400604.9180914934</v>
+        <v>-400604.9180912445</v>
       </c>
       <c r="C149">
-        <v>43052.75556607192</v>
+        <v>62842.90542137636</v>
       </c>
       <c r="D149">
-        <v>-9.304977412576893</v>
+        <v>-6.374703960695244</v>
       </c>
       <c r="E149">
-        <v>2.146766120320477E-20</v>
+        <v>2.299635970741949E-10</v>
       </c>
     </row>
     <row r="150">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B150">
-        <v>-411748.362535995</v>
+        <v>-411748.3625356886</v>
       </c>
       <c r="C150">
-        <v>43052.75556607647</v>
+        <v>62842.90542137651</v>
       </c>
       <c r="D150">
-        <v>-9.563809728834945</v>
+        <v>-6.552026195714833</v>
       </c>
       <c r="E150">
-        <v>1.918173837806661E-21</v>
+        <v>7.304232928345928E-11</v>
       </c>
     </row>
     <row r="151">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B151">
-        <v>-442396.4444446792</v>
+        <v>-442396.4444443232</v>
       </c>
       <c r="C151">
-        <v>43042.78530743871</v>
+        <v>62828.35211317136</v>
       </c>
       <c r="D151">
-        <v>-10.27806265985821</v>
+        <v>-7.04135043439376</v>
       </c>
       <c r="E151">
-        <v>1.775444294119416E-24</v>
+        <v>2.657845290527184E-12</v>
       </c>
     </row>
     <row r="152">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B152">
-        <v>-412176.5555557124</v>
+        <v>-412176.5555554719</v>
       </c>
       <c r="C152">
-        <v>43042.78530743297</v>
+        <v>62828.35211317569</v>
       </c>
       <c r="D152">
-        <v>-9.575973130264284</v>
+        <v>-6.560359164171595</v>
       </c>
       <c r="E152">
-        <v>1.709759502944411E-21</v>
+        <v>6.916095058550828E-11</v>
       </c>
     </row>
     <row r="153">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B153">
-        <v>-455036.2514248583</v>
+        <v>-455036.2514245898</v>
       </c>
       <c r="C153">
-        <v>43052.75556607461</v>
+        <v>62842.90542137762</v>
       </c>
       <c r="D153">
-        <v>-10.56927124505417</v>
+        <v>-7.240853177832189</v>
       </c>
       <c r="E153">
-        <v>8.998901312866176E-26</v>
+        <v>6.467582003640213E-13</v>
       </c>
     </row>
     <row r="154">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B154">
-        <v>-371977.0292026287</v>
+        <v>-371977.0292023445</v>
       </c>
       <c r="C154">
-        <v>43052.7555660736</v>
+        <v>62842.90542137536</v>
       </c>
       <c r="D154">
-        <v>-8.640028363149739</v>
+        <v>-5.919157090337526</v>
       </c>
       <c r="E154">
-        <v>7.992283122072126E-18</v>
+        <v>3.835957508293734E-09</v>
       </c>
     </row>
     <row r="155">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B155">
-        <v>-359017.5612544487</v>
+        <v>-359017.5612541295</v>
       </c>
       <c r="C155">
-        <v>43202.03333160357</v>
+        <v>63060.80200841573</v>
       </c>
       <c r="D155">
-        <v>-8.310200552338742</v>
+        <v>-5.693196880150955</v>
       </c>
       <c r="E155">
-        <v>1.292623806251414E-16</v>
+        <v>1.44329370319301E-08</v>
       </c>
     </row>
     <row r="156">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B156">
-        <v>-426057.6958692907</v>
+        <v>-426057.6958689959</v>
       </c>
       <c r="C156">
-        <v>43052.7555660736</v>
+        <v>62842.90542137361</v>
       </c>
       <c r="D156">
-        <v>-9.896177149809022</v>
+        <v>-6.779726255687865</v>
       </c>
       <c r="E156">
-        <v>7.881325454324487E-23</v>
+        <v>1.605840336607231E-11</v>
       </c>
     </row>
     <row r="157">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B157">
-        <v>-363061.5847581707</v>
+        <v>-363061.5847578945</v>
       </c>
       <c r="C157">
-        <v>43052.75556607258</v>
+        <v>62842.90542137447</v>
       </c>
       <c r="D157">
-        <v>-8.432946509102866</v>
+        <v>-5.777288340242907</v>
       </c>
       <c r="E157">
-        <v>4.642744691968598E-17</v>
+        <v>8.862926735939705E-09</v>
       </c>
     </row>
     <row r="158">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B158">
-        <v>-293755.2514248423</v>
+        <v>-293755.2514245831</v>
       </c>
       <c r="C158">
-        <v>43052.75556607208</v>
+        <v>62842.90542137783</v>
       </c>
       <c r="D158">
-        <v>-6.823146336685067</v>
+        <v>-4.674437781876549</v>
       </c>
       <c r="E158">
-        <v>1.024254540636921E-11</v>
+        <v>3.156819482320374E-06</v>
       </c>
     </row>
     <row r="159">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B159">
-        <v>-407867.1168100104</v>
+        <v>-407867.116809697</v>
       </c>
       <c r="C159">
-        <v>43202.03333160383</v>
+        <v>63060.80200841695</v>
       </c>
       <c r="D159">
-        <v>-9.440924080571945</v>
+        <v>-6.467839035019844</v>
       </c>
       <c r="E159">
-        <v>6.084538778254546E-21</v>
+        <v>1.263590837580185E-10</v>
       </c>
     </row>
     <row r="160">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B160">
-        <v>-321050.8888890741</v>
+        <v>-321050.888888803</v>
       </c>
       <c r="C160">
-        <v>43042.7853074345</v>
+        <v>62828.35211317592</v>
       </c>
       <c r="D160">
-        <v>-7.458878104564044</v>
+        <v>-5.109968319883317</v>
       </c>
       <c r="E160">
-        <v>1.063631190027557E-13</v>
+        <v>3.548490323817515E-07</v>
       </c>
     </row>
     <row r="161">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B161">
-        <v>-213590.6958693369</v>
+        <v>-213590.6958690142</v>
       </c>
       <c r="C161">
-        <v>43052.75556607872</v>
+        <v>62842.90542137623</v>
       </c>
       <c r="D161">
-        <v>-4.961138794972396</v>
+        <v>-3.398803642779389</v>
       </c>
       <c r="E161">
-        <v>7.298540377379976E-07</v>
+        <v>0.000690918161993743</v>
       </c>
     </row>
     <row r="162">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B162">
-        <v>-442516.6666668407</v>
+        <v>-442516.6666665793</v>
       </c>
       <c r="C162">
-        <v>43042.78530743442</v>
+        <v>62828.35211317521</v>
       </c>
       <c r="D162">
-        <v>-10.28085574634986</v>
+        <v>-7.043263937106871</v>
       </c>
       <c r="E162">
-        <v>1.726016651787191E-24</v>
+        <v>2.622508563356512E-12</v>
       </c>
     </row>
     <row r="163">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B163">
-        <v>-226403.5555557525</v>
+        <v>-226403.5555554524</v>
       </c>
       <c r="C163">
-        <v>43042.78530743543</v>
+        <v>62828.35211317279</v>
       </c>
       <c r="D163">
-        <v>-5.259965263368828</v>
+        <v>-3.603525286603592</v>
       </c>
       <c r="E163">
-        <v>1.516015784465704E-07</v>
+        <v>0.0003220835780312825</v>
       </c>
     </row>
     <row r="164">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B164">
-        <v>-365680.5555557894</v>
+        <v>-365680.555555449</v>
       </c>
       <c r="C164">
-        <v>43042.78530743926</v>
+        <v>62828.35211317291</v>
       </c>
       <c r="D164">
-        <v>-8.495745638760683</v>
+        <v>-5.820311105673238</v>
       </c>
       <c r="E164">
-        <v>2.734593645828145E-17</v>
+        <v>6.88862350535126E-09</v>
       </c>
     </row>
     <row r="165">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B165">
-        <v>65264.6666664722</v>
+        <v>65264.66666677072</v>
       </c>
       <c r="C165">
-        <v>43042.78530743728</v>
+        <v>62828.35211317433</v>
       </c>
       <c r="D165">
-        <v>1.516274242020189</v>
+        <v>1.03877731106504</v>
       </c>
       <c r="E165">
-        <v>0.1295288044682629</v>
+        <v>0.2990416818416471</v>
       </c>
     </row>
     <row r="166">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B166">
-        <v>-161407.6958693119</v>
+        <v>-161407.6958690249</v>
       </c>
       <c r="C166">
-        <v>43052.75556607553</v>
+        <v>62842.90542137862</v>
       </c>
       <c r="D166">
-        <v>-3.749067713484454</v>
+        <v>-2.568431468703472</v>
       </c>
       <c r="E166">
-        <v>0.0001799939694782867</v>
+        <v>0.01029246300784745</v>
       </c>
     </row>
     <row r="167">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B167">
-        <v>-152167.4736470741</v>
+        <v>-152167.4736467874</v>
       </c>
       <c r="C167">
-        <v>43052.75556607205</v>
+        <v>62842.90542137495</v>
       </c>
       <c r="D167">
-        <v>-3.53444214304811</v>
+        <v>-2.421394628820427</v>
       </c>
       <c r="E167">
-        <v>0.0004132482313239983</v>
+        <v>0.01555503671452788</v>
       </c>
     </row>
     <row r="168">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B168">
-        <v>-134262.2514248694</v>
+        <v>-134262.2514245622</v>
       </c>
       <c r="C168">
-        <v>43052.75556607483</v>
+        <v>62842.90542137308</v>
       </c>
       <c r="D168">
-        <v>-3.118551871059953</v>
+        <v>-2.136474284954036</v>
       </c>
       <c r="E168">
-        <v>0.001830301233186771</v>
+        <v>0.03276935609465138</v>
       </c>
     </row>
     <row r="169">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B169">
-        <v>-76708.80698043325</v>
+        <v>-76708.80698012268</v>
       </c>
       <c r="C169">
-        <v>43052.75556607651</v>
+        <v>62842.90542137541</v>
       </c>
       <c r="D169">
-        <v>-1.781739774187092</v>
+        <v>-1.220643865298292</v>
       </c>
       <c r="E169">
-        <v>0.07486729640368474</v>
+        <v>0.2223737199714436</v>
       </c>
     </row>
     <row r="170">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B170">
-        <v>-128806.9180915345</v>
+        <v>-128806.9180912381</v>
       </c>
       <c r="C170">
-        <v>43052.7555660745</v>
+        <v>62842.90542137693</v>
       </c>
       <c r="D170">
-        <v>-2.991839114545184</v>
+        <v>-2.049665228358817</v>
       </c>
       <c r="E170">
-        <v>0.002789901587513861</v>
+        <v>0.0405353667260861</v>
       </c>
     </row>
     <row r="171">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>-410972.4444446823</v>
+        <v>-410972.4444443568</v>
       </c>
       <c r="C171">
-        <v>43042.7853074392</v>
+        <v>62828.35211317518</v>
       </c>
       <c r="D171">
-        <v>-9.547998381360623</v>
+        <v>-6.541194072766001</v>
       </c>
       <c r="E171">
-        <v>2.227068915133135E-21</v>
+        <v>7.840777259564668E-11</v>
       </c>
     </row>
     <row r="172">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B172">
-        <v>-378977.584758202</v>
+        <v>-378977.584757886</v>
       </c>
       <c r="C172">
-        <v>43052.75556607522</v>
+        <v>62842.90542137358</v>
       </c>
       <c r="D172">
-        <v>-8.802632486010475</v>
+        <v>-6.030554797184654</v>
       </c>
       <c r="E172">
-        <v>1.952093361146278E-18</v>
+        <v>1.961760521926303E-09</v>
       </c>
     </row>
     <row r="173">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B173">
-        <v>-459263.4736470534</v>
+        <v>-459263.4736467868</v>
       </c>
       <c r="C173">
-        <v>43052.75556607258</v>
+        <v>62842.905421375</v>
       </c>
       <c r="D173">
-        <v>-10.66745827551565</v>
+        <v>-7.308119676633788</v>
       </c>
       <c r="E173">
-        <v>3.235486382050748E-26</v>
+        <v>3.983556568549599E-13</v>
       </c>
     </row>
     <row r="174">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B174">
-        <v>-472986.0056988808</v>
+        <v>-472986.0056985641</v>
       </c>
       <c r="C174">
-        <v>43202.03333160236</v>
+        <v>63060.80200841482</v>
       </c>
       <c r="D174">
-        <v>-10.94823482192193</v>
+        <v>-7.500475582842237</v>
       </c>
       <c r="E174">
-        <v>1.65404213427504E-27</v>
+        <v>9.741797569072944E-14</v>
       </c>
     </row>
     <row r="175">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B175">
-        <v>243517.5263528947</v>
+        <v>243517.5263532205</v>
       </c>
       <c r="C175">
-        <v>43052.75556607363</v>
+        <v>62842.90542137697</v>
       </c>
       <c r="D175">
-        <v>5.656258772546281</v>
+        <v>3.875020174837179</v>
       </c>
       <c r="E175">
-        <v>1.65489340710974E-08</v>
+        <v>0.0001102659861351922</v>
       </c>
     </row>
     <row r="176">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B176">
-        <v>-444221.6958693112</v>
+        <v>-444221.6958690208</v>
       </c>
       <c r="C176">
-        <v>43052.75556607501</v>
+        <v>62842.90542137626</v>
       </c>
       <c r="D176">
-        <v>-10.31807813526695</v>
+        <v>-7.06876445145894</v>
       </c>
       <c r="E176">
-        <v>1.183960375150105E-24</v>
+        <v>2.19338424953017E-12</v>
       </c>
     </row>
     <row r="177">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B177">
-        <v>-417477.5847582172</v>
+        <v>-417477.5847578905</v>
       </c>
       <c r="C177">
-        <v>43052.75556607662</v>
+        <v>62842.9054213741</v>
       </c>
       <c r="D177">
-        <v>-9.696884189386667</v>
+        <v>-6.643193562719941</v>
       </c>
       <c r="E177">
-        <v>5.409405776006818E-22</v>
+        <v>4.005320439431187E-11</v>
       </c>
     </row>
     <row r="178">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B178">
-        <v>-225407.3625359752</v>
+        <v>-225407.3625356813</v>
       </c>
       <c r="C178">
-        <v>43052.75556607452</v>
+        <v>62842.90542137597</v>
       </c>
       <c r="D178">
-        <v>-5.235608257177288</v>
+        <v>-3.586838657828974</v>
       </c>
       <c r="E178">
-        <v>1.728676810510798E-07</v>
+        <v>0.0003432532185852557</v>
       </c>
     </row>
     <row r="179">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B179">
-        <v>-181874.5555557568</v>
+        <v>-181874.5555554521</v>
       </c>
       <c r="C179">
-        <v>43042.78530743619</v>
+        <v>62828.35211317278</v>
       </c>
       <c r="D179">
-        <v>-4.225436487362625</v>
+        <v>-2.894784749850534</v>
       </c>
       <c r="E179">
-        <v>2.437785276380408E-05</v>
+        <v>0.003837882875052287</v>
       </c>
     </row>
     <row r="180">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B180">
-        <v>-253709.0292026233</v>
+        <v>-253709.0292023388</v>
       </c>
       <c r="C180">
-        <v>43052.75556607236</v>
+        <v>62842.90542137434</v>
       </c>
       <c r="D180">
-        <v>-5.892980039646014</v>
+        <v>-4.037194453394041</v>
       </c>
       <c r="E180">
-        <v>4.104619099273037E-09</v>
+        <v>5.626185464440168E-05</v>
       </c>
     </row>
     <row r="181">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B181">
-        <v>-416806.3625359783</v>
+        <v>-416806.3625356856</v>
       </c>
       <c r="C181">
-        <v>43052.75556607534</v>
+        <v>62842.90542137605</v>
       </c>
       <c r="D181">
-        <v>-9.681293498073162</v>
+        <v>-6.632512608080476</v>
       </c>
       <c r="E181">
-        <v>6.279464393379398E-22</v>
+        <v>4.299108177730503E-11</v>
       </c>
     </row>
     <row r="182">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B182">
-        <v>-9002.918091540041</v>
+        <v>-9002.918091229922</v>
       </c>
       <c r="C182">
-        <v>43052.75556607584</v>
+        <v>62842.90542137346</v>
       </c>
       <c r="D182">
-        <v>-0.2091136321744303</v>
+        <v>-0.1432606915747079</v>
       </c>
       <c r="E182">
-        <v>0.8343701494773976</v>
+        <v>0.8860996274275466</v>
       </c>
     </row>
     <row r="183">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B183">
-        <v>-302777.5847581959</v>
+        <v>-302777.5847578885</v>
       </c>
       <c r="C183">
-        <v>43052.75556607472</v>
+        <v>62842.90542137357</v>
       </c>
       <c r="D183">
-        <v>-7.032710932834751</v>
+        <v>-4.818007422281123</v>
       </c>
       <c r="E183">
-        <v>2.37054759036261E-12</v>
+        <v>1.566029752083032E-06</v>
       </c>
     </row>
     <row r="184">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B184">
-        <v>-284545.2514248919</v>
+        <v>-284545.2514245651</v>
       </c>
       <c r="C184">
-        <v>43052.75556607782</v>
+        <v>62842.90542137491</v>
       </c>
       <c r="D184">
-        <v>-6.609222747384169</v>
+        <v>-4.527881859004279</v>
       </c>
       <c r="E184">
-        <v>4.370865152580067E-11</v>
+        <v>6.330768041298805E-06</v>
       </c>
     </row>
     <row r="185">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B185">
-        <v>-332602.4444446653</v>
+        <v>-332602.4444443473</v>
       </c>
       <c r="C185">
-        <v>43042.78530743835</v>
+        <v>62828.35211317435</v>
       </c>
       <c r="D185">
-        <v>-7.727251897594723</v>
+        <v>-5.293827281117</v>
       </c>
       <c r="E185">
-        <v>1.379410343412304E-14</v>
+        <v>1.337819099254414E-07</v>
       </c>
     </row>
     <row r="186">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B186">
-        <v>-181396.5555557641</v>
+        <v>-181396.5555554607</v>
       </c>
       <c r="C186">
-        <v>43042.78530743736</v>
+        <v>62828.35211317499</v>
       </c>
       <c r="D186">
-        <v>-4.214331258075454</v>
+        <v>-2.887176719655237</v>
       </c>
       <c r="E186">
-        <v>2.560314642195238E-05</v>
+        <v>0.0039314988115256</v>
       </c>
     </row>
     <row r="187">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B187">
-        <v>-277637.333333529</v>
+        <v>-277637.3333332344</v>
       </c>
       <c r="C187">
-        <v>43042.78530743581</v>
+        <v>62828.35211317426</v>
       </c>
       <c r="D187">
-        <v>-6.450264111638845</v>
+        <v>-4.418981622072778</v>
       </c>
       <c r="E187">
-        <v>1.249171479379777E-10</v>
+        <v>1.048101189477046E-05</v>
       </c>
     </row>
     <row r="188">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B188">
-        <v>-337639.6666668856</v>
+        <v>-337639.6666665677</v>
       </c>
       <c r="C188">
-        <v>43042.78530743797</v>
+        <v>62828.35211317403</v>
       </c>
       <c r="D188">
-        <v>-7.844280156482813</v>
+        <v>-5.374001630002491</v>
       </c>
       <c r="E188">
-        <v>5.541697281218306E-15</v>
+        <v>8.657686941354526E-08</v>
       </c>
     </row>
     <row r="189">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B189">
-        <v>-256070.6958693281</v>
+        <v>-256070.6958690049</v>
       </c>
       <c r="C189">
-        <v>43052.75556607721</v>
+        <v>62842.90542137386</v>
       </c>
       <c r="D189">
-        <v>-5.947835219892296</v>
+        <v>-4.074774935245296</v>
       </c>
       <c r="E189">
-        <v>2.948926548224084E-09</v>
+        <v>4.797161332210214E-05</v>
       </c>
     </row>
     <row r="190">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B190">
-        <v>-403471.2222224222</v>
+        <v>-403471.222222117</v>
       </c>
       <c r="C190">
-        <v>43042.78530743637</v>
+        <v>62828.35211317329</v>
       </c>
       <c r="D190">
-        <v>-9.373724756439398</v>
+        <v>-6.42180176069779</v>
       </c>
       <c r="E190">
-        <v>1.137148945420612E-20</v>
+        <v>1.700524554857005E-10</v>
       </c>
     </row>
     <row r="191">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B191">
-        <v>208823.1111109064</v>
+        <v>208823.1111112106</v>
       </c>
       <c r="C191">
-        <v>43042.78530743544</v>
+        <v>62828.35211317389</v>
       </c>
       <c r="D191">
-        <v>4.851524119997717</v>
+        <v>3.323708231835424</v>
       </c>
       <c r="E191">
-        <v>1.271681061468815E-06</v>
+        <v>0.0009053199244861877</v>
       </c>
     </row>
     <row r="192">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B192">
-        <v>-319035.695869311</v>
+        <v>-319035.6958690055</v>
       </c>
       <c r="C192">
-        <v>43052.75556607505</v>
+        <v>62842.90542137441</v>
       </c>
       <c r="D192">
-        <v>-7.410343232959205</v>
+        <v>-5.076717789061575</v>
       </c>
       <c r="E192">
-        <v>1.527824977938823E-13</v>
+        <v>4.218966161066785E-07</v>
       </c>
     </row>
     <row r="193">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B193">
-        <v>-358111.1111113194</v>
+        <v>-358111.1111110036</v>
       </c>
       <c r="C193">
-        <v>43042.78530743696</v>
+        <v>62828.35211317285</v>
       </c>
       <c r="D193">
-        <v>-8.319887027604709</v>
+        <v>-5.699832942712507</v>
       </c>
       <c r="E193">
-        <v>1.192892986650115E-16</v>
+        <v>1.389137771618499E-08</v>
       </c>
     </row>
     <row r="194">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B194">
-        <v>-450228.1111113392</v>
+        <v>-450228.1111110059</v>
       </c>
       <c r="C194">
-        <v>43042.78530743835</v>
+        <v>62828.35211317341</v>
       </c>
       <c r="D194">
-        <v>-10.46001340051602</v>
+        <v>-7.166002226192485</v>
       </c>
       <c r="E194">
-        <v>2.779991532654673E-25</v>
+        <v>1.103720513842144E-12</v>
       </c>
     </row>
     <row r="195">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B195">
-        <v>-37249.1403137584</v>
+        <v>-37249.14031345322</v>
       </c>
       <c r="C195">
-        <v>43052.75556607626</v>
+        <v>62842.90542137439</v>
       </c>
       <c r="D195">
-        <v>-0.8651975889577934</v>
+        <v>-0.5927342165943825</v>
       </c>
       <c r="E195">
-        <v>0.386982078594341</v>
+        <v>0.5534302126978342</v>
       </c>
     </row>
     <row r="196">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B196">
-        <v>-302888.2222224287</v>
+        <v>-302888.2222221128</v>
       </c>
       <c r="C196">
-        <v>43042.78530743705</v>
+        <v>62828.3521131723</v>
       </c>
       <c r="D196">
-        <v>-7.036910368579117</v>
+        <v>-4.820884394302149</v>
       </c>
       <c r="E196">
-        <v>2.301062607881461E-12</v>
+        <v>1.543882429318478E-06</v>
       </c>
     </row>
     <row r="197">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B197">
-        <v>-429611.3333335543</v>
+        <v>-429611.333333223</v>
       </c>
       <c r="C197">
-        <v>43042.78530743786</v>
+        <v>62828.3521131728</v>
       </c>
       <c r="D197">
-        <v>-9.98103004405983</v>
+        <v>-6.837857732753573</v>
       </c>
       <c r="E197">
-        <v>3.432445265701163E-23</v>
+        <v>1.08258730887002E-11</v>
       </c>
     </row>
     <row r="198">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B198">
-        <v>26611.77777757547</v>
+        <v>26611.77777788042</v>
       </c>
       <c r="C198">
-        <v>43042.78530743601</v>
+        <v>62828.35211317415</v>
       </c>
       <c r="D198">
-        <v>0.618263376486885</v>
+        <v>0.4235631985054139</v>
       </c>
       <c r="E198">
-        <v>0.5364368351747926</v>
+        <v>0.6719327740879774</v>
       </c>
     </row>
     <row r="199">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B199">
-        <v>-208580.4444446426</v>
+        <v>-208580.444444343</v>
       </c>
       <c r="C199">
-        <v>43042.78530743605</v>
+        <v>62828.35211317348</v>
       </c>
       <c r="D199">
-        <v>-4.845886318806797</v>
+        <v>-3.319845856670322</v>
       </c>
       <c r="E199">
-        <v>1.308118453715832E-06</v>
+        <v>0.0009178633775706067</v>
       </c>
     </row>
     <row r="200">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>-272505.0000002092</v>
+        <v>-272504.9999998937</v>
       </c>
       <c r="C200">
-        <v>43042.7853074374</v>
+        <v>62828.35211317273</v>
       </c>
       <c r="D200">
-        <v>-6.331026165100957</v>
+        <v>-4.337293448490108</v>
       </c>
       <c r="E200">
-        <v>2.703267071864219E-10</v>
+        <v>1.51879427746098E-05</v>
       </c>
     </row>
     <row r="201">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B201">
-        <v>-381847.8888890777</v>
+        <v>-381847.8888887927</v>
       </c>
       <c r="C201">
-        <v>43042.78530743565</v>
+        <v>62828.35211317439</v>
       </c>
       <c r="D201">
-        <v>-8.87135639949196</v>
+        <v>-6.077636545376199</v>
       </c>
       <c r="E201">
-        <v>1.067953433355843E-18</v>
+        <v>1.472548148325268E-09</v>
       </c>
     </row>
     <row r="202">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B202">
-        <v>-468741.8888890864</v>
+        <v>-468741.8888887901</v>
       </c>
       <c r="C202">
-        <v>43042.78530743604</v>
+        <v>62828.35211317403</v>
       </c>
       <c r="D202">
-        <v>-10.89013839464768</v>
+        <v>-7.460674570048177</v>
       </c>
       <c r="E202">
-        <v>3.078249310788657E-27</v>
+        <v>1.307313610097427E-13</v>
       </c>
     </row>
     <row r="203">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B203">
-        <v>-236226.7777779787</v>
+        <v>-236226.7777776839</v>
       </c>
       <c r="C203">
-        <v>43042.78530743637</v>
+        <v>62828.35211317508</v>
       </c>
       <c r="D203">
-        <v>-5.488185211312674</v>
+        <v>-3.759875435729393</v>
       </c>
       <c r="E203">
-        <v>4.311696621609398E-08</v>
+        <v>0.0001751851826440402</v>
       </c>
     </row>
     <row r="204">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B204">
-        <v>-462341.7777779796</v>
+        <v>-462341.7777776888</v>
       </c>
       <c r="C204">
-        <v>43042.7853074365</v>
+        <v>62828.35211317481</v>
       </c>
       <c r="D204">
-        <v>-10.74144655081373</v>
+        <v>-7.358807962126034</v>
       </c>
       <c r="E204">
-        <v>1.488193848699396E-26</v>
+        <v>2.757410340522231E-13</v>
       </c>
     </row>
     <row r="205">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B205">
-        <v>-320409.7777779785</v>
+        <v>-320409.7777776716</v>
       </c>
       <c r="C205">
-        <v>43042.78530743646</v>
+        <v>62828.35211317302</v>
       </c>
       <c r="D205">
-        <v>-7.44398336421369</v>
+        <v>-5.099764151071731</v>
       </c>
       <c r="E205">
-        <v>1.188944799807082E-13</v>
+        <v>3.742461840912632E-07</v>
       </c>
     </row>
     <row r="206">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B206">
-        <v>-455307.1111112905</v>
+        <v>-455307.1111110091</v>
       </c>
       <c r="C206">
-        <v>43042.7853074352</v>
+        <v>62828.35211317369</v>
       </c>
       <c r="D206">
-        <v>-10.57801226986677</v>
+        <v>-7.246841526113201</v>
       </c>
       <c r="E206">
-        <v>8.218549018694567E-26</v>
+        <v>6.195506439779068E-13</v>
       </c>
     </row>
     <row r="207">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B207">
-        <v>-459302.5555557616</v>
+        <v>-459302.5555554646</v>
       </c>
       <c r="C207">
-        <v>43042.78530743657</v>
+        <v>62828.35211317471</v>
       </c>
       <c r="D207">
-        <v>-10.67083722103846</v>
+        <v>-7.310434542801763</v>
       </c>
       <c r="E207">
-        <v>3.123083419360491E-26</v>
+        <v>3.917386624043348E-13</v>
       </c>
     </row>
     <row r="208">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B208">
-        <v>-361865.555555772</v>
+        <v>-361865.5555554554</v>
       </c>
       <c r="C208">
-        <v>43042.78530743763</v>
+        <v>62828.3521131739</v>
       </c>
       <c r="D208">
-        <v>-8.407112898738063</v>
+        <v>-5.759590111541046</v>
       </c>
       <c r="E208">
-        <v>5.766021053646874E-17</v>
+        <v>9.826166509398069E-09</v>
       </c>
     </row>
     <row r="209">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B209">
-        <v>-461742.8888891073</v>
+        <v>-461742.8888888004</v>
       </c>
       <c r="C209">
-        <v>43042.7853074377</v>
+        <v>62828.352113175</v>
       </c>
       <c r="D209">
-        <v>-10.72753274656971</v>
+        <v>-7.349275818296907</v>
       </c>
       <c r="E209">
-        <v>1.722866119189568E-26</v>
+        <v>2.955449084962848E-13</v>
       </c>
     </row>
     <row r="210">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B210">
-        <v>-320000.1111113155</v>
+        <v>-320000.1111110118</v>
       </c>
       <c r="C210">
-        <v>43042.78530743676</v>
+        <v>62828.35211317411</v>
       </c>
       <c r="D210">
-        <v>-7.434465702572161</v>
+        <v>-5.093243740255807</v>
       </c>
       <c r="E210">
-        <v>1.276505521953874E-13</v>
+        <v>3.87172935220163E-07</v>
       </c>
     </row>
     <row r="211">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B211">
-        <v>1702141.555555328</v>
+        <v>1702141.555555637</v>
       </c>
       <c r="C211">
-        <v>43042.78530743592</v>
+        <v>62828.35211317317</v>
       </c>
       <c r="D211">
-        <v>39.54533944301397</v>
+        <v>27.09193378953433</v>
       </c>
       <c r="E211">
-        <v>4.173676423930594E-289</v>
+        <v>8.985393176758307E-137</v>
       </c>
     </row>
     <row r="212">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B212">
-        <v>601488.7777775674</v>
+        <v>601488.7777778856</v>
       </c>
       <c r="C212">
-        <v>43042.78530743592</v>
+        <v>62828.35211317408</v>
       </c>
       <c r="D212">
-        <v>13.97420667555304</v>
+        <v>9.573524651647885</v>
       </c>
       <c r="E212">
-        <v>2.291951505568297E-43</v>
+        <v>3.116357760184512E-21</v>
       </c>
     </row>
     <row r="213">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B213">
-        <v>-138964.6958693147</v>
+        <v>-138964.6958690106</v>
       </c>
       <c r="C213">
-        <v>43052.75556607594</v>
+        <v>62842.90542137508</v>
       </c>
       <c r="D213">
-        <v>-3.22777703870862</v>
+        <v>-2.211302850134357</v>
       </c>
       <c r="E213">
-        <v>0.001257600762974424</v>
+        <v>0.02713460606105371</v>
       </c>
     </row>
     <row r="214">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B214">
-        <v>-85349.33333352946</v>
+        <v>-85349.33333323168</v>
       </c>
       <c r="C214">
-        <v>43042.78530743536</v>
+        <v>62828.35211317369</v>
       </c>
       <c r="D214">
-        <v>-1.982895222135774</v>
+        <v>-1.358452521235805</v>
       </c>
       <c r="E214">
-        <v>0.0474472243273395</v>
+        <v>0.1744828566381499</v>
       </c>
     </row>
     <row r="215">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B215">
-        <v>-180095.8888890916</v>
+        <v>-180095.8888887897</v>
       </c>
       <c r="C215">
-        <v>43042.78530743699</v>
+        <v>62828.35211317414</v>
       </c>
       <c r="D215">
-        <v>-4.184113263180818</v>
+        <v>-2.866474813224114</v>
       </c>
       <c r="E215">
-        <v>2.924087451798184E-05</v>
+        <v>0.004196834867193329</v>
       </c>
     </row>
     <row r="216">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B216">
-        <v>-340508.6666668743</v>
+        <v>-340508.666666568</v>
       </c>
       <c r="C216">
-        <v>43042.78530743722</v>
+        <v>62828.35211317418</v>
       </c>
       <c r="D216">
-        <v>-7.910934764903306</v>
+        <v>-5.419665727555639</v>
       </c>
       <c r="E216">
-        <v>3.277695773190225E-15</v>
+        <v>6.739109058898962E-08</v>
       </c>
     </row>
     <row r="217">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B217">
-        <v>-223616.8888890942</v>
+        <v>-223616.888888786</v>
       </c>
       <c r="C217">
-        <v>43042.78530743721</v>
+        <v>62828.35211317348</v>
       </c>
       <c r="D217">
-        <v>-5.1952234803554</v>
+        <v>-3.559171637766055</v>
       </c>
       <c r="E217">
-        <v>2.146345502947009E-07</v>
+        <v>0.0003812470102929348</v>
       </c>
     </row>
     <row r="218">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B218">
-        <v>263999.9999997987</v>
+        <v>264000.0000001</v>
       </c>
       <c r="C218">
-        <v>43042.78530743622</v>
+        <v>62828.35211317345</v>
       </c>
       <c r="D218">
-        <v>6.1334320749496</v>
+        <v>4.201924626712375</v>
       </c>
       <c r="E218">
-        <v>9.431463461786827E-10</v>
+        <v>2.770327899970029E-05</v>
       </c>
     </row>
     <row r="219">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B219">
-        <v>355352.1111109066</v>
+        <v>355352.1111112091</v>
       </c>
       <c r="C219">
-        <v>43042.78530743609</v>
+        <v>62828.35211317315</v>
       </c>
       <c r="D219">
-        <v>8.255788015872566</v>
+        <v>5.655919647090391</v>
       </c>
       <c r="E219">
-        <v>2.026023588835055E-16</v>
+        <v>1.787836262222278E-08</v>
       </c>
     </row>
     <row r="220">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B220">
-        <v>-462117.7834766465</v>
+        <v>-462117.7834763443</v>
       </c>
       <c r="C220">
-        <v>43202.03333160203</v>
+        <v>63060.80200841494</v>
       </c>
       <c r="D220">
-        <v>-10.69666744455313</v>
+        <v>-7.328130451221957</v>
       </c>
       <c r="E220">
-        <v>2.38257280738556E-26</v>
+        <v>3.446014391522646E-13</v>
       </c>
     </row>
     <row r="221">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B221">
-        <v>-226586.555555753</v>
+        <v>-226586.5555554531</v>
       </c>
       <c r="C221">
-        <v>43042.78530743633</v>
+        <v>62828.35211317353</v>
       </c>
       <c r="D221">
-        <v>-5.264216846966141</v>
+        <v>-3.606437984356167</v>
       </c>
       <c r="E221">
-        <v>1.481587762352042E-07</v>
+        <v>0.0003185161298150212</v>
       </c>
     </row>
     <row r="222">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B222">
-        <v>-463774.7777779865</v>
+        <v>-463774.7777776711</v>
       </c>
       <c r="C222">
-        <v>43042.78530743715</v>
+        <v>62828.35211317329</v>
       </c>
       <c r="D222">
-        <v>-10.77473900597815</v>
+        <v>-7.381616136330766</v>
       </c>
       <c r="E222">
-        <v>1.047583160730554E-26</v>
+        <v>2.334974421864807E-13</v>
       </c>
     </row>
     <row r="223">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B223">
-        <v>-405700.2036860127</v>
+        <v>-405700.2036857107</v>
       </c>
       <c r="C223">
-        <v>46034.75602122198</v>
+        <v>67195.64823900272</v>
       </c>
       <c r="D223">
-        <v>-8.81291091233296</v>
+        <v>-6.037596396759337</v>
       </c>
       <c r="E223">
-        <v>1.784205196144831E-18</v>
+        <v>1.879621824546487E-09</v>
       </c>
     </row>
     <row r="224">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B224">
-        <v>-229002.4444446466</v>
+        <v>-229002.4444443425</v>
       </c>
       <c r="C224">
-        <v>43042.78530743699</v>
+        <v>62828.35211317379</v>
       </c>
       <c r="D224">
-        <v>-5.320344462120095</v>
+        <v>-3.644890192756232</v>
       </c>
       <c r="E224">
-        <v>1.092258284407955E-07</v>
+        <v>0.0002747603357843733</v>
       </c>
     </row>
     <row r="225">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B225">
-        <v>-446933.1403137479</v>
+        <v>-446933.1403134584</v>
       </c>
       <c r="C225">
-        <v>43052.75556607493</v>
+        <v>62842.90542137566</v>
       </c>
       <c r="D225">
-        <v>-10.38105771482664</v>
+        <v>-7.111910840478687</v>
       </c>
       <c r="E225">
-        <v>6.238689785040274E-25</v>
+        <v>1.618941094141561E-12</v>
       </c>
     </row>
     <row r="226">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B226">
-        <v>-467521.9180915317</v>
+        <v>-467521.9180912378</v>
       </c>
       <c r="C226">
-        <v>43052.75556607537</v>
+        <v>62842.90542137577</v>
       </c>
       <c r="D226">
-        <v>-10.85927978231267</v>
+        <v>-7.439533785976294</v>
       </c>
       <c r="E226">
-        <v>4.276099949532472E-27</v>
+        <v>1.527493484872023E-13</v>
       </c>
     </row>
     <row r="227">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B227">
-        <v>-135154.7777779767</v>
+        <v>-135154.777777676</v>
       </c>
       <c r="C227">
-        <v>43042.78530743646</v>
+        <v>62828.35211317364</v>
       </c>
       <c r="D227">
-        <v>-3.140010034495285</v>
+        <v>-2.1511749589456</v>
       </c>
       <c r="E227">
-        <v>0.001701699308640551</v>
+        <v>0.03158926635279499</v>
       </c>
     </row>
     <row r="228">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B228">
-        <v>-379345.1403137548</v>
+        <v>-379345.1403134568</v>
       </c>
       <c r="C228">
-        <v>43052.75556607541</v>
+        <v>62842.90542137556</v>
       </c>
       <c r="D228">
-        <v>-8.811169815403645</v>
+        <v>-6.036403596712531</v>
       </c>
       <c r="E228">
-        <v>1.811605357642655E-18</v>
+        <v>1.893295662593186E-09</v>
       </c>
     </row>
     <row r="229">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>-454436.7777779796</v>
+        <v>-454436.7777776779</v>
       </c>
       <c r="C229">
-        <v>43042.78530743669</v>
+        <v>62828.35211317393</v>
       </c>
       <c r="D229">
-        <v>-10.55779207902386</v>
+        <v>-7.232988969042069</v>
       </c>
       <c r="E229">
-        <v>1.013627146715194E-25</v>
+        <v>6.842780507475409E-13</v>
       </c>
     </row>
     <row r="230">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B230">
-        <v>-318984.2222224209</v>
+        <v>-318984.2222221202</v>
       </c>
       <c r="C230">
-        <v>43042.78530743653</v>
+        <v>62828.35211317369</v>
       </c>
       <c r="D230">
-        <v>-7.4108638635732</v>
+        <v>-5.077074465482223</v>
       </c>
       <c r="E230">
-        <v>1.521919090030869E-13</v>
+        <v>4.211163875504887E-07</v>
       </c>
     </row>
     <row r="231">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B231">
-        <v>-388011.3390322041</v>
+        <v>-388011.3390319015</v>
       </c>
       <c r="C231">
-        <v>43202.03333160216</v>
+        <v>63060.8020084152</v>
       </c>
       <c r="D231">
-        <v>-8.981321227498221</v>
+        <v>-6.152971841051483</v>
       </c>
       <c r="E231">
-        <v>4.03123766514652E-19</v>
+        <v>9.266056040378214E-10</v>
       </c>
     </row>
     <row r="232">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B232">
-        <v>-463879.8945877572</v>
+        <v>-463879.8945874575</v>
       </c>
       <c r="C232">
-        <v>43202.033331602</v>
+        <v>63060.80200841519</v>
       </c>
       <c r="D232">
-        <v>-10.73745513381733</v>
+        <v>-7.356073500707375</v>
       </c>
       <c r="E232">
-        <v>1.552064640245695E-26</v>
+        <v>2.812846796472213E-13</v>
       </c>
     </row>
     <row r="233">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B233">
-        <v>-470171.4501433137</v>
+        <v>-470171.4501430136</v>
       </c>
       <c r="C233">
-        <v>43202.03333160203</v>
+        <v>63060.80200841527</v>
       </c>
       <c r="D233">
-        <v>-10.8830861393597</v>
+        <v>-7.45584317307399</v>
       </c>
       <c r="E233">
-        <v>3.318629761424352E-27</v>
+        <v>1.354702697268026E-13</v>
       </c>
     </row>
     <row r="234">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B234">
-        <v>-458813.6666668657</v>
+        <v>-458813.6666665656</v>
       </c>
       <c r="C234">
-        <v>43042.7853074365</v>
+        <v>62828.35211317382</v>
       </c>
       <c r="D234">
-        <v>-10.6594790134921</v>
+        <v>-7.302653200900391</v>
       </c>
       <c r="E234">
-        <v>3.517096641537301E-26</v>
+        <v>4.144205331892102E-13</v>
       </c>
     </row>
     <row r="235">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B235">
-        <v>-431052.4444446425</v>
+        <v>-431052.4444443427</v>
       </c>
       <c r="C235">
-        <v>43042.7853074364</v>
+        <v>62828.35211317377</v>
       </c>
       <c r="D235">
-        <v>-10.0145109422129</v>
+        <v>-6.860795006494532</v>
       </c>
       <c r="E235">
-        <v>2.468157454970953E-23</v>
+        <v>9.258250081046324E-12</v>
       </c>
     </row>
     <row r="236">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B236">
-        <v>-96808.69586931204</v>
+        <v>-96808.69586901077</v>
       </c>
       <c r="C236">
-        <v>43052.75556607557</v>
+        <v>62842.90542137533</v>
       </c>
       <c r="D236">
-        <v>-2.248606264487162</v>
+        <v>-1.540487270916063</v>
       </c>
       <c r="E236">
-        <v>0.02459161088960382</v>
+        <v>0.1236096445476807</v>
       </c>
     </row>
     <row r="237">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B237">
-        <v>-424284.0292026454</v>
+        <v>-424284.0292023447</v>
       </c>
       <c r="C237">
-        <v>43052.75556607551</v>
+        <v>62842.90542137539</v>
       </c>
       <c r="D237">
-        <v>-9.854979631941852</v>
+        <v>-6.751502438619406</v>
       </c>
       <c r="E237">
-        <v>1.177149909361377E-22</v>
+        <v>1.942497948184388E-11</v>
       </c>
     </row>
     <row r="238">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B238">
-        <v>-423213.6666668658</v>
+        <v>-423213.6666665652</v>
       </c>
       <c r="C238">
-        <v>43042.78530743649</v>
+        <v>62828.3521131738</v>
       </c>
       <c r="D238">
-        <v>-9.832394991263431</v>
+        <v>-6.736030031540905</v>
       </c>
       <c r="E238">
-        <v>1.465746553292547E-22</v>
+        <v>2.155462636310569E-11</v>
       </c>
     </row>
     <row r="239">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B239">
-        <v>-308435.0292026448</v>
+        <v>-308435.0292023448</v>
       </c>
       <c r="C239">
-        <v>43052.75556607548</v>
+        <v>62842.90542137541</v>
       </c>
       <c r="D239">
-        <v>-7.164118188190586</v>
+        <v>-4.908032611385812</v>
       </c>
       <c r="E239">
-        <v>9.27090685275159E-13</v>
+        <v>9.992059098589056E-07</v>
       </c>
     </row>
     <row r="240">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B240">
-        <v>23445.59915611539</v>
+        <v>23445.59915611703</v>
       </c>
       <c r="C240">
-        <v>8387.788064864322</v>
+        <v>12243.42008134369</v>
       </c>
       <c r="D240">
-        <v>2.795206432829039</v>
+        <v>1.914955053436664</v>
       </c>
       <c r="E240">
-        <v>0.005211315808953001</v>
+        <v>0.05564959457385162</v>
       </c>
     </row>
     <row r="241">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B241">
-        <v>34502.55394405493</v>
+        <v>34502.55394404991</v>
       </c>
       <c r="C241">
-        <v>8397.936757257503</v>
+        <v>12258.23384431508</v>
       </c>
       <c r="D241">
-        <v>4.108456034065487</v>
+        <v>2.814643151880395</v>
       </c>
       <c r="E241">
-        <v>4.06262610656292E-05</v>
+        <v>0.004933926028229569</v>
       </c>
     </row>
     <row r="242">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B242">
-        <v>52478.41411354281</v>
+        <v>52478.41411353748</v>
       </c>
       <c r="C242">
-        <v>8397.936757257481</v>
+        <v>12258.23384431505</v>
       </c>
       <c r="D242">
-        <v>6.248965148277767</v>
+        <v>4.281074645828786</v>
       </c>
       <c r="E242">
-        <v>4.562699002859038E-10</v>
+        <v>1.953454294709874E-05</v>
       </c>
     </row>
     <row r="243">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B243">
-        <v>86740.07594936715</v>
+        <v>86740.07594936719</v>
       </c>
       <c r="C243">
-        <v>8387.788064864275</v>
+        <v>12243.4200813437</v>
       </c>
       <c r="D243">
-        <v>10.34123362185484</v>
+        <v>7.084627936726614</v>
       </c>
       <c r="E243">
-        <v>9.35878154182101E-25</v>
+        <v>1.962052202390076E-12</v>
       </c>
     </row>
     <row r="244">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B244">
-        <v>112352.6023483435</v>
+        <v>112352.6023483419</v>
       </c>
       <c r="C244">
-        <v>9068.820336224857</v>
+        <v>13237.50387587196</v>
       </c>
       <c r="D244">
-        <v>12.38888832096031</v>
+        <v>8.487446228675131</v>
       </c>
       <c r="E244">
-        <v>1.280011023842901E-34</v>
+        <v>4.213530165050357E-17</v>
       </c>
     </row>
     <row r="245">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B245">
-        <v>136904.4296776665</v>
+        <v>136904.4296776622</v>
       </c>
       <c r="C245">
-        <v>10552.6408848667</v>
+        <v>15403.39530778017</v>
       </c>
       <c r="D245">
-        <v>12.97347566086495</v>
+        <v>8.887938466950368</v>
       </c>
       <c r="E245">
-        <v>9.835598288323751E-38</v>
+        <v>1.422623330013899E-18</v>
       </c>
     </row>
     <row r="246">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B246">
-        <v>161898.4085806175</v>
+        <v>161898.4085806149</v>
       </c>
       <c r="C246">
-        <v>10552.64088486667</v>
+        <v>15403.39530778017</v>
       </c>
       <c r="D246">
-        <v>15.34198030113891</v>
+        <v>10.51056636187483</v>
       </c>
       <c r="E246">
-        <v>1.143892663532146E-51</v>
+        <v>3.779396499070638E-25</v>
       </c>
     </row>
     <row r="247">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B247">
-        <v>181074.5571815493</v>
+        <v>181074.5571815456</v>
       </c>
       <c r="C247">
-        <v>10591.16855238117</v>
+        <v>15459.6330684969</v>
       </c>
       <c r="D247">
-        <v>17.09674964438547</v>
+        <v>11.71273317932319</v>
       </c>
       <c r="E247">
-        <v>2.609538054074684E-63</v>
+        <v>1.231892750025381E-30</v>
       </c>
     </row>
   </sheetData>
